--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhvorarlberg-my.sharepoint.com/personal/ffa6995_students_fhv_at/Documents/Master/Autonome Systeme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{F44CF782-FF36-4723-B226-E03B1D9EA88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F530F45-0616-4864-894E-D68F83A7D11C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2099E9E-5D1C-48B6-85D7-09499A540B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>PROJEKTDETAILS</t>
   </si>
@@ -232,7 +232,16 @@
     </r>
   </si>
   <si>
-    <t>Schmales Labyrinth (eine Labyrinthwand-Breite)</t>
+    <t>20.10.2022</t>
+  </si>
+  <si>
+    <t>Frontier Explore Search oder anderer Explore Algorithmus verstanden</t>
+  </si>
+  <si>
+    <t>Schmales Labyrinth (eine Labyrinthwand-Breite) kann eingelesen werden</t>
+  </si>
+  <si>
+    <t>tatsächliche Fertigstellung 06.10.2022</t>
   </si>
 </sst>
 </file>
@@ -353,7 +362,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +435,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -483,6 +498,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -835,9 +856,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H30" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H23">
-    <sortCondition ref="B19:B23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H24">
+    <sortCondition ref="B20:B24"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="22"/>
@@ -1142,10 +1163,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1"/>
@@ -1153,7 +1174,7 @@
     <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.92578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.92578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7.03125E-2" style="7" hidden="1" customWidth="1"/>
@@ -1337,18 +1358,20 @@
       <c r="C13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="13"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="28.3">
+    <row r="14" spans="1:8" ht="42.45">
       <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>57</v>
+      <c r="C14" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="10"/>
@@ -1356,12 +1379,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
+    <row r="15" spans="1:8" ht="28.3">
       <c r="B15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="10"/>
@@ -1374,9 +1397,11 @@
         <v>19</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="13"/>
@@ -1384,58 +1409,58 @@
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1">
       <c r="B17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:8" ht="27" customHeight="1">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:8" ht="30" customHeight="1">
+      <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" ht="41.15" customHeight="1">
+    <row r="19" spans="2:8" ht="27" customHeight="1">
       <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="44.15" customHeight="1">
-      <c r="B20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="12"/>
+    <row r="20" spans="2:8" ht="41.15" customHeight="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:8" ht="48.9" customHeight="1">
-      <c r="B21" s="17" t="s">
-        <v>24</v>
+    <row r="21" spans="2:8" ht="44.15" customHeight="1">
+      <c r="B21" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="10"/>
@@ -1443,38 +1468,38 @@
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:8" ht="48.9" customHeight="1">
+      <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="42.45">
-      <c r="B23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="12"/>
+    <row r="23" spans="2:8" ht="30" customHeight="1">
+      <c r="B23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:8" ht="42.45">
+      <c r="B24" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
@@ -1483,11 +1508,11 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1">
-      <c r="B25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>15</v>
+      <c r="B25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
@@ -1496,11 +1521,11 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>42</v>
+      <c r="C26" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
@@ -1509,11 +1534,11 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1">
-      <c r="B27" s="17" t="s">
-        <v>25</v>
+      <c r="B27" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
@@ -1522,11 +1547,11 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1">
-      <c r="B28" s="17" t="s">
-        <v>26</v>
+      <c r="B28" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="10"/>
@@ -1535,11 +1560,11 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1">
-      <c r="B29" s="17" t="s">
-        <v>17</v>
+      <c r="B29" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
@@ -1548,17 +1573,30 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1">
-      <c r="B30" s="17" t="s">
-        <v>18</v>
+      <c r="B30" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="13"/>
       <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="2:8" ht="30" customHeight="1">
+      <c r="B31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1568,9 +1606,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeitachse in den Zellen A2 bis I2 wird automatisch mit Projektdaten und Meilensteinen aktualisiert." sqref="A2:A3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Projektdetails in der Tabelle unten ein." sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B20:B21 B17 B3:B15" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D20:D21 D18 D3:D15" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C20 C17 C15 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B21:B22 B18 B3:B16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D21:D22 D19 D3:D17" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C21 C18 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2099E9E-5D1C-48B6-85D7-09499A540B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D35B7-2506-41A4-A2F4-ECCDAAA86CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>PROJEKTDETAILS</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Turtlebot Wlan-Verbindung funktioniert</t>
   </si>
   <si>
-    <t>Postits auf Karte können markiert werden</t>
-  </si>
-  <si>
     <t>24.11.2022</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>Zusammenfügen der Komponenten</t>
-  </si>
-  <si>
-    <t>Erkennung einzelner Postits umgesetzt</t>
   </si>
   <si>
     <t>Roboter kann Postits anhand von Koordination voneinander unterscheiden</t>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>19.01.2023</t>
-  </si>
-  <si>
-    <t>Roboter kann anderen Robotern ausweichen</t>
   </si>
   <si>
     <t>Roboter kann sich selbständig im Labyrinth bewegen</t>
@@ -242,6 +233,24 @@
   </si>
   <si>
     <t>tatsächliche Fertigstellung 06.10.2022</t>
+  </si>
+  <si>
+    <t>tatsächliche Fertigstellung 13.10.2022</t>
+  </si>
+  <si>
+    <t>27.10.2022</t>
+  </si>
+  <si>
+    <t>Programm zur Postit Erkennung funktioniert  lokal</t>
+  </si>
+  <si>
+    <t>Erkennung einzelner Postits von Turtlebot funktioniert</t>
+  </si>
+  <si>
+    <t>Postits werden während Kartierung auf Karte markiert</t>
+  </si>
+  <si>
+    <t>Roboter kann nicht bekannten Robotern ausweichen</t>
   </si>
 </sst>
 </file>
@@ -496,13 +505,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -856,9 +865,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H24">
-    <sortCondition ref="B20:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H32" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H25">
+    <sortCondition ref="B21:B25"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="22"/>
@@ -1163,10 +1172,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1"/>
@@ -1187,16 +1196,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="61.95" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="33.9" customHeight="1">
       <c r="A2" s="14"/>
@@ -1219,19 +1228,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" ht="33.75" customHeight="1">
@@ -1327,10 +1336,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="B11" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
@@ -1356,10 +1365,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
@@ -1370,10 +1379,12 @@
       <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="13"/>
@@ -1381,12 +1392,14 @@
     </row>
     <row r="15" spans="1:8" ht="28.3">
       <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="13"/>
@@ -1397,10 +1410,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
@@ -1412,10 +1425,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
@@ -1423,57 +1436,59 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1">
-      <c r="B18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11"/>
+      <c r="B18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" ht="27" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+    <row r="19" spans="2:8" ht="30" customHeight="1">
+      <c r="B19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="41.15" customHeight="1">
+    <row r="20" spans="2:8" ht="27" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:8" ht="44.15" customHeight="1">
-      <c r="B21" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="2:8" ht="41.15" customHeight="1">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="C21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" ht="48.9" customHeight="1">
-      <c r="B22" s="21" t="s">
-        <v>24</v>
+    <row r="22" spans="2:8" ht="44.15" customHeight="1">
+      <c r="B22" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="10"/>
@@ -1481,38 +1496,38 @@
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="2:8" ht="48.9" customHeight="1">
+      <c r="B23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="42.45">
-      <c r="B24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="12"/>
+    <row r="24" spans="2:8" ht="30" customHeight="1">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="2:8" ht="42.45">
+      <c r="B25" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
@@ -1521,11 +1536,11 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1">
-      <c r="B26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>15</v>
+      <c r="B26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
@@ -1534,11 +1549,11 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1">
-      <c r="B27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>42</v>
+      <c r="B27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
@@ -1547,11 +1562,11 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1">
-      <c r="B28" s="21" t="s">
-        <v>25</v>
+      <c r="B28" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="10"/>
@@ -1560,11 +1575,11 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1">
-      <c r="B29" s="21" t="s">
-        <v>26</v>
+      <c r="B29" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
@@ -1573,11 +1588,11 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1">
-      <c r="B30" s="21" t="s">
-        <v>17</v>
+      <c r="B30" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -1586,17 +1601,30 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1">
-      <c r="B31" s="21" t="s">
-        <v>18</v>
+      <c r="B31" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="13"/>
       <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8" ht="30" customHeight="1">
+      <c r="B32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1606,9 +1634,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeitachse in den Zellen A2 bis I2 wird automatisch mit Projektdaten und Meilensteinen aktualisiert." sqref="A2:A3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Projektdetails in der Tabelle unten ein." sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B21:B22 B18 B3:B16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D21:D22 D19 D3:D17" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C21 C18 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B22:B23 B19 B3:B16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D22:D23 D20 D3:D18" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C22 C19 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D35B7-2506-41A4-A2F4-ECCDAAA86CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C164E53-30A9-4165-841D-399BADCF7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>PROJEKTDETAILS</t>
   </si>
@@ -241,16 +241,28 @@
     <t>27.10.2022</t>
   </si>
   <si>
-    <t>Programm zur Postit Erkennung funktioniert  lokal</t>
-  </si>
-  <si>
     <t>Erkennung einzelner Postits von Turtlebot funktioniert</t>
   </si>
   <si>
-    <t>Postits werden während Kartierung auf Karte markiert</t>
+    <t>Roboter kann nicht bekannten Robotern ausweichen</t>
   </si>
   <si>
-    <t>Roboter kann nicht bekannten Robotern ausweichen</t>
+    <t>Programm zur Postit Erkennung funktioniert  lokal am Notebook</t>
+  </si>
+  <si>
+    <t>03.11.2022</t>
+  </si>
+  <si>
+    <t>Programm zur Postit Erkennung funktioniert  lokal via ros</t>
+  </si>
+  <si>
+    <t>Position der Postits wird während der Kartierung in Datei gespeichert</t>
+  </si>
+  <si>
+    <t>Map wird nach abfahren des Labyrinths abgespeichert</t>
+  </si>
+  <si>
+    <t>Roboter zeigt an, dass ein Postit erkannt wurde (stehen bleiben, oder LED, oder ton)</t>
   </si>
 </sst>
 </file>
@@ -511,8 +523,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -865,9 +877,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H32" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H25">
-    <sortCondition ref="B21:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H34" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H27">
+    <sortCondition ref="B22:B27"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="22"/>
@@ -1172,10 +1184,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1"/>
@@ -1439,8 +1451,8 @@
       <c r="B18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>60</v>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="10"/>
@@ -1448,34 +1460,38 @@
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>34</v>
+    <row r="19" spans="2:8" ht="27" customHeight="1">
+      <c r="B19" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="27" customHeight="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="11"/>
+    <row r="20" spans="2:8" ht="28.3">
+      <c r="B20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:8" ht="41.15" customHeight="1">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:8" ht="30" customHeight="1">
+      <c r="B21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>15</v>
+      <c r="C21" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10"/>
@@ -1483,25 +1499,25 @@
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" ht="44.15" customHeight="1">
-      <c r="B22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="12"/>
+    <row r="22" spans="2:8" ht="41.15" customHeight="1">
+      <c r="B22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="48.9" customHeight="1">
+    <row r="23" spans="2:8" ht="44.15" customHeight="1">
       <c r="B23" s="20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="10"/>
@@ -1509,51 +1525,51 @@
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1">
+    <row r="24" spans="2:8" ht="48.9" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="12"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="42.45">
+    <row r="25" spans="2:8" ht="30" customHeight="1">
       <c r="B25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1">
+    <row r="26" spans="2:8" ht="42.45">
       <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="13"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1">
+    <row r="27" spans="2:8" ht="42.45">
       <c r="B27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
@@ -1563,10 +1579,10 @@
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1">
       <c r="B28" s="20" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="10"/>
@@ -1576,10 +1592,10 @@
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1">
       <c r="B29" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
@@ -1589,10 +1605,10 @@
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1">
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -1602,10 +1618,10 @@
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1">
       <c r="B31" s="20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
@@ -1615,16 +1631,42 @@
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1">
       <c r="B32" s="20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="13"/>
       <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" ht="30" customHeight="1">
+      <c r="B33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="2:8" ht="30" customHeight="1">
+      <c r="B34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1634,9 +1676,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeitachse in den Zellen A2 bis I2 wird automatisch mit Projektdaten und Meilensteinen aktualisiert." sqref="A2:A3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Projektdetails in der Tabelle unten ein." sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B22:B23 B19 B3:B16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D22:D23 D20 D3:D18" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C22 C19 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B23:B24 B21 B3:B16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D23:D24 D19:D21 D3:D18" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C23 C21 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C164E53-30A9-4165-841D-399BADCF7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C534530-06DA-4531-BA12-EBFA5F6D5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>PROJEKTDETAILS</t>
   </si>
@@ -256,13 +256,19 @@
     <t>Programm zur Postit Erkennung funktioniert  lokal via ros</t>
   </si>
   <si>
-    <t>Position der Postits wird während der Kartierung in Datei gespeichert</t>
-  </si>
-  <si>
     <t>Map wird nach abfahren des Labyrinths abgespeichert</t>
   </si>
   <si>
     <t>Roboter zeigt an, dass ein Postit erkannt wurde (stehen bleiben, oder LED, oder ton)</t>
+  </si>
+  <si>
+    <t>Position der Postits wird während der Kartierung in Datei gespeichert (Nr + Koordinaten)</t>
+  </si>
+  <si>
+    <t>08.12.2022</t>
+  </si>
+  <si>
+    <t>Pfadplanung zum abfahren der Postits in der richtigen Reihenfolge funktioniert</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -522,9 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -877,9 +880,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H34" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H27">
-    <sortCondition ref="B22:B27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H35" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H28">
+    <sortCondition ref="B22:B28"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="22"/>
@@ -1184,10 +1187,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1"/>
@@ -1478,7 +1481,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="10"/>
@@ -1487,7 +1490,7 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1517,7 +1520,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="10"/>
@@ -1525,38 +1528,38 @@
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="48.9" customHeight="1">
+    <row r="24" spans="2:8" ht="30" customHeight="1">
       <c r="B24" s="20" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1">
+    <row r="25" spans="2:8" ht="48.9" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" ht="42.45">
+    <row r="26" spans="2:8" ht="30" customHeight="1">
       <c r="B26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10"/>
@@ -1569,20 +1572,20 @@
         <v>20</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1">
+    <row r="28" spans="2:8" ht="42.45">
       <c r="B28" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="10"/>
@@ -1592,10 +1595,10 @@
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1">
       <c r="B29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
@@ -1607,8 +1610,8 @@
       <c r="B30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>40</v>
+      <c r="C30" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -1618,10 +1621,10 @@
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1">
       <c r="B31" s="20" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
@@ -1631,10 +1634,10 @@
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1">
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
@@ -1644,10 +1647,10 @@
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1">
       <c r="B33" s="20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="10"/>
@@ -1657,16 +1660,29 @@
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1">
       <c r="B34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
       <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8" ht="30" customHeight="1">
+      <c r="B35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1676,9 +1692,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeitachse in den Zellen A2 bis I2 wird automatisch mit Projektdaten und Meilensteinen aktualisiert." sqref="A2:A3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Projektdetails in der Tabelle unten ein." sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B23:B24 B21 B3:B16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D23:D24 D19:D21 D3:D18" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C23 C21 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B21 B3:B16 B23:B25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D3:D21 D23:D25" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C23:C24 C21 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C534530-06DA-4531-BA12-EBFA5F6D5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789805E-C0C6-46C3-A5F1-BDF9E31B2AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>PROJEKTDETAILS</t>
   </si>
@@ -270,6 +270,18 @@
   <si>
     <t>Pfadplanung zum abfahren der Postits in der richtigen Reihenfolge funktioniert</t>
   </si>
+  <si>
+    <t>Pixy CAM node ansprechen</t>
+  </si>
+  <si>
+    <t>19.11.2022</t>
+  </si>
+  <si>
+    <t>funktioniert, muss aber noch verbessert werden bis 01.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programm zur Postit Erkennung verbessern (Pixy + Pycam) </t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +401,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +480,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -526,8 +544,20 @@
     <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -880,9 +910,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H35" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H28">
-    <sortCondition ref="B22:B28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H37" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H30">
+    <sortCondition ref="B23:B30"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="22"/>
@@ -1187,9 +1217,9 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1198,11 +1228,11 @@
     <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.92578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="11" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7.03125E-2" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.35546875" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.78515625" style="7"/>
     <col min="11" max="11" width="11.78515625" style="7" customWidth="1"/>
@@ -1211,16 +1241,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="61.95" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="33.9" customHeight="1">
       <c r="A2" s="14"/>
@@ -1463,51 +1493,53 @@
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" ht="27" customHeight="1">
+    <row r="19" spans="2:8" ht="30" customHeight="1">
       <c r="B19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="28.3">
+    <row r="20" spans="2:8" ht="27" customHeight="1">
       <c r="B20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1">
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8" ht="28.3">
       <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" ht="41.15" customHeight="1">
+    <row r="22" spans="2:8" ht="30" customHeight="1">
       <c r="B22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>15</v>
+      <c r="C22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
@@ -1515,25 +1547,25 @@
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="44.15" customHeight="1">
-      <c r="B23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12"/>
+    <row r="23" spans="2:8" ht="41.15" customHeight="1">
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1">
-      <c r="B24" s="20" t="s">
-        <v>68</v>
+    <row r="24" spans="2:8" ht="41.15" customHeight="1">
+      <c r="B24" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10"/>
@@ -1541,12 +1573,12 @@
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="48.9" customHeight="1">
+    <row r="25" spans="2:8" ht="44.15" customHeight="1">
       <c r="B25" s="20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
@@ -1556,10 +1588,10 @@
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1">
       <c r="B26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10"/>
@@ -1567,51 +1599,51 @@
       <c r="G26" s="13"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" ht="42.45">
+    <row r="27" spans="2:8" ht="48.9" customHeight="1">
       <c r="B27" s="20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="D27" s="12"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" ht="42.45">
+    <row r="28" spans="2:8" ht="30" customHeight="1">
       <c r="B28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="13"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1">
+    <row r="29" spans="2:8" ht="42.45">
       <c r="B29" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1">
+    <row r="30" spans="2:8" ht="42.45">
       <c r="B30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -1621,10 +1653,10 @@
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1">
       <c r="B31" s="20" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
@@ -1634,10 +1666,10 @@
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1">
       <c r="B32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
@@ -1647,10 +1679,10 @@
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1">
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="10"/>
@@ -1660,10 +1692,10 @@
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1">
       <c r="B34" s="20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="10"/>
@@ -1673,16 +1705,42 @@
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1">
       <c r="B35" s="20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="13"/>
       <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="2:8" ht="30" customHeight="1">
+      <c r="B36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="2:8" ht="30" customHeight="1">
+      <c r="B37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1692,9 +1750,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeitachse in den Zellen A2 bis I2 wird automatisch mit Projektdaten und Meilensteinen aktualisiert." sqref="A2:A3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Projektdetails in der Tabelle unten ein." sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B21 B3:B16 B23:B25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D3:D21 D23:D25" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C23:C24 C21 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein." sqref="B22 B3:B16 B25:B27" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Position ein. Positionen bezeichnen die Darstellung von Datum und Meilenstein auf der Zeitachse – positive Zahlen werden oberhalb der Zeitachse dargestellt, negative darunter." sqref="D25:D27 D21:D22 D19 D3:D18" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Meilenstein ein." sqref="C25:C26 C22 C16 C3:C12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789805E-C0C6-46C3-A5F1-BDF9E31B2AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE4FDA9-B688-4B82-883F-360264C51518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -547,16 +547,19 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1"/>
@@ -1241,16 +1244,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="61.95" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="33.9" customHeight="1">
       <c r="A2" s="14"/>
@@ -1512,20 +1515,20 @@
       <c r="B20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" ht="28.3">
       <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="12"/>
@@ -1538,7 +1541,7 @@
       <c r="B22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="11"/>
@@ -1551,7 +1554,7 @@
       <c r="B23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11"/>
@@ -1564,7 +1567,7 @@
       <c r="B24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="11"/>
@@ -1577,7 +1580,7 @@
       <c r="B25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="12"/>
@@ -1590,7 +1593,7 @@
       <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="11"/>
@@ -1603,7 +1606,7 @@
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="12"/>

--- a/Meilensteinplan.xlsx
+++ b/Meilensteinplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\autonomus_slam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE4FDA9-B688-4B82-883F-360264C51518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA10181-0A27-4F78-9E31-520358F0D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meilensteinplan" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>PROJEKTDETAILS</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>22.12.2022</t>
-  </si>
-  <si>
-    <t>24.01.2023</t>
   </si>
   <si>
     <t>26.01.2023</t>
@@ -282,6 +279,18 @@
   <si>
     <t xml:space="preserve">Programm zur Postit Erkennung verbessern (Pixy + Pycam) </t>
   </si>
+  <si>
+    <t>einzeln funktioniert es, Kombination noch nicht</t>
+  </si>
+  <si>
+    <t>Intelligente Pfadplanung abhängig von aktueller Roboterposition</t>
+  </si>
+  <si>
+    <t>Master zur Koordination aller Roboter</t>
+  </si>
+  <si>
+    <t>create a rosnode which arranges a list of coordinates depending on the map and robot position in order to reach them as fast as possible</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +300,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -480,7 +489,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -550,13 +559,28 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -913,7 +937,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H37" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjektDetails" displayName="ProjektDetails" ref="B3:H38" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H30">
     <sortCondition ref="B23:B30"/>
   </sortState>
@@ -1220,13 +1244,13 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
@@ -1243,19 +1267,19 @@
     <col min="13" max="16384" width="8.78515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="61.95" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.9" customHeight="1">
+    <row r="1" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="16" t="s">
         <v>0</v>
@@ -1267,31 +1291,31 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" ht="33.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
@@ -1304,12 +1328,12 @@
       <c r="G4" s="13"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1">
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="10"/>
@@ -1317,12 +1341,12 @@
       <c r="G5" s="13"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="10"/>
@@ -1330,9 +1354,9 @@
       <c r="G6" s="13"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>14</v>
@@ -1343,9 +1367,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>16</v>
@@ -1356,12 +1380,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
@@ -1369,12 +1393,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="10"/>
@@ -1382,12 +1406,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
@@ -1395,7 +1419,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
@@ -1408,87 +1432,87 @@
       <c r="G12" s="13"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="42.45">
+    <row r="13" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="13"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="42.45">
+    <row r="14" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="13"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="28.3">
+    <row r="15" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1">
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1">
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="10"/>
@@ -1496,27 +1520,27 @@
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="27" customHeight="1">
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="22" t="s">
         <v>70</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10"/>
@@ -1524,12 +1548,12 @@
       <c r="G20" s="13"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:8" ht="28.3">
+    <row r="21" spans="2:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="10"/>
@@ -1537,12 +1561,12 @@
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1">
+    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
@@ -1550,11 +1574,11 @@
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="41.15" customHeight="1">
+    <row r="23" spans="2:8" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11"/>
@@ -1563,12 +1587,12 @@
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="41.15" customHeight="1">
+    <row r="24" spans="2:8" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10"/>
@@ -1576,25 +1600,27 @@
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="44.15" customHeight="1">
+    <row r="25" spans="2:8" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="2:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="B26" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10"/>
@@ -1602,12 +1628,12 @@
       <c r="G26" s="13"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" ht="48.9" customHeight="1">
-      <c r="B27" s="20" t="s">
+    <row r="27" spans="2:8" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>41</v>
+      <c r="C27" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
@@ -1615,11 +1641,11 @@
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1">
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="11"/>
@@ -1628,12 +1654,12 @@
       <c r="G28" s="13"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8" ht="42.45">
-      <c r="B29" s="20" t="s">
+    <row r="29" spans="2:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="B29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>66</v>
+      <c r="C29" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="10"/>
@@ -1641,12 +1667,12 @@
       <c r="G29" s="13"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:8" ht="42.45">
-      <c r="B30" s="20" t="s">
+    <row r="30" spans="2:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="B30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>39</v>
+      <c r="C30" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -1654,12 +1680,12 @@
       <c r="G30" s="13"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1">
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>61</v>
+      <c r="C31" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
@@ -1667,11 +1693,11 @@
       <c r="G31" s="13"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1">
-      <c r="B32" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="18" t="s">
+    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="12"/>
@@ -1680,38 +1706,42 @@
       <c r="G32" s="13"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" ht="30" customHeight="1">
-      <c r="B33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="12"/>
+    <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" ht="30" customHeight="1">
+    <row r="34" spans="2:8" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8" ht="30" customHeight="1">
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
@@ -1719,12 +1749,12 @@
       <c r="G35" s="13"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8" ht="30" customHeight="1">
+    <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
@@ -1732,18 +1762,31 @@
       <c r="G36" s="13"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8" ht="30" customHeight="1">
+    <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="13"/>
       <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1774,7 +1817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.78515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
@@ -1794,12 +1837,12 @@
     <col min="18" max="16384" width="8.78515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="141.44999999999999">
+    <row r="3" spans="1:16" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.75" thickBot="1">
+    <row r="4" spans="1:16" ht="28.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28.3">
+    <row r="5" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1938,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E6" s="4" t="str">
         <f>IFERROR(RANK(F6,ProjectTimelineData[RANG])+SUMPRODUCT(--(F6=ProjectTimelineData[RANG]),--(J6&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -1937,7 +1980,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E7" s="4" t="str">
         <f>IFERROR(RANK(F7,ProjectTimelineData[RANG])+SUMPRODUCT(--(F7=ProjectTimelineData[RANG]),--(J7&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -1979,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E8" s="4" t="str">
         <f>IFERROR(RANK(F8,ProjectTimelineData[RANG])+SUMPRODUCT(--(F8=ProjectTimelineData[RANG]),--(J8&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2021,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E9" s="4" t="str">
         <f>IFERROR(RANK(F9,ProjectTimelineData[RANG])+SUMPRODUCT(--(F9=ProjectTimelineData[RANG]),--(J9&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2063,7 +2106,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E10" s="4" t="str">
         <f>IFERROR(RANK(F10,ProjectTimelineData[RANG])+SUMPRODUCT(--(F10=ProjectTimelineData[RANG]),--(J10&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2105,7 +2148,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E11" s="4" t="str">
         <f>IFERROR(RANK(F11,ProjectTimelineData[RANG])+SUMPRODUCT(--(F11=ProjectTimelineData[RANG]),--(J11&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2147,7 +2190,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E12" s="4" t="str">
         <f>IFERROR(RANK(F12,ProjectTimelineData[RANG])+SUMPRODUCT(--(F12=ProjectTimelineData[RANG]),--(J12&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2189,7 +2232,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E13" s="4" t="str">
         <f>IFERROR(RANK(F13,ProjectTimelineData[RANG])+SUMPRODUCT(--(F13=ProjectTimelineData[RANG]),--(J13&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2231,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E14" s="4" t="str">
         <f>IFERROR(RANK(F14,ProjectTimelineData[RANG])+SUMPRODUCT(--(F14=ProjectTimelineData[RANG]),--(J14&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2273,7 +2316,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E15" s="4" t="str">
         <f>IFERROR(RANK(F15,ProjectTimelineData[RANG])+SUMPRODUCT(--(F15=ProjectTimelineData[RANG]),--(J15&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2315,7 +2358,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E16" s="4" t="str">
         <f>IFERROR(RANK(F16,ProjectTimelineData[RANG])+SUMPRODUCT(--(F16=ProjectTimelineData[RANG]),--(J16&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2357,7 +2400,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="E17" s="4" t="str">
         <f>IFERROR(RANK(F17,ProjectTimelineData[RANG])+SUMPRODUCT(--(F17=ProjectTimelineData[RANG]),--(J17&lt;ProjectTimelineData[NUM])),"")</f>
@@ -2400,7 +2443,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="E18" s="4" t="str">
         <f>IFERROR(RANK(F18,ProjectTimelineData[RANG])+SUMPRODUCT(--(F18=ProjectTimelineData[RANG]),--(J18&lt;ProjectTimelineData[NUM])),"")</f>
@@ -2443,7 +2486,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E19" s="4" t="str">
         <f>IFERROR(RANK(F19,ProjectTimelineData[RANG])+SUMPRODUCT(--(F19=ProjectTimelineData[RANG]),--(J19&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2485,7 +2528,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E20" s="4" t="str">
         <f>IFERROR(RANK(F20,ProjectTimelineData[RANG])+SUMPRODUCT(--(F20=ProjectTimelineData[RANG]),--(J20&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2527,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E21" s="4" t="str">
         <f>IFERROR(RANK(F21,ProjectTimelineData[RANG])+SUMPRODUCT(--(F21=ProjectTimelineData[RANG]),--(J21&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2569,7 +2612,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E22" s="4" t="str">
         <f>IFERROR(RANK(F22,ProjectTimelineData[RANG])+SUMPRODUCT(--(F22=ProjectTimelineData[RANG]),--(J22&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2611,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E23" s="4" t="str">
         <f>IFERROR(RANK(F23,ProjectTimelineData[RANG])+SUMPRODUCT(--(F23=ProjectTimelineData[RANG]),--(J23&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2653,7 +2696,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E24" s="4" t="str">
         <f>IFERROR(RANK(F24,ProjectTimelineData[RANG])+SUMPRODUCT(--(F24=ProjectTimelineData[RANG]),--(J24&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2695,7 +2738,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E25" s="4" t="str">
         <f>IFERROR(RANK(F25,ProjectTimelineData[RANG])+SUMPRODUCT(--(F25=ProjectTimelineData[RANG]),--(J25&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2737,7 +2780,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E26" s="4" t="str">
         <f>IFERROR(RANK(F26,ProjectTimelineData[RANG])+SUMPRODUCT(--(F26=ProjectTimelineData[RANG]),--(J26&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2779,7 +2822,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E27" s="4" t="str">
         <f>IFERROR(RANK(F27,ProjectTimelineData[RANG])+SUMPRODUCT(--(F27=ProjectTimelineData[RANG]),--(J27&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2821,7 +2864,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E28" s="4" t="str">
         <f>IFERROR(RANK(F28,ProjectTimelineData[RANG])+SUMPRODUCT(--(F28=ProjectTimelineData[RANG]),--(J28&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2863,7 +2906,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E29" s="4" t="str">
         <f>IFERROR(RANK(F29,ProjectTimelineData[RANG])+SUMPRODUCT(--(F29=ProjectTimelineData[RANG]),--(J29&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2905,7 +2948,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E30" s="4" t="str">
         <f>IFERROR(RANK(F30,ProjectTimelineData[RANG])+SUMPRODUCT(--(F30=ProjectTimelineData[RANG]),--(J30&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2947,7 +2990,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E31" s="4" t="str">
         <f>IFERROR(RANK(F31,ProjectTimelineData[RANG])+SUMPRODUCT(--(F31=ProjectTimelineData[RANG]),--(J31&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -2989,7 +3032,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="str">
         <f>IFERROR(RANK(F32,ProjectTimelineData[RANG])+SUMPRODUCT(--(F32=ProjectTimelineData[RANG]),--(J32&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3031,7 +3074,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:16">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E33" s="4" t="str">
         <f>IFERROR(RANK(F33,ProjectTimelineData[RANG])+SUMPRODUCT(--(F33=ProjectTimelineData[RANG]),--(J33&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3073,7 +3116,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E34" s="4" t="str">
         <f>IFERROR(RANK(F34,ProjectTimelineData[RANG])+SUMPRODUCT(--(F34=ProjectTimelineData[RANG]),--(J34&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3115,7 +3158,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="5:16">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E35" s="4" t="str">
         <f>IFERROR(RANK(F35,ProjectTimelineData[RANG])+SUMPRODUCT(--(F35=ProjectTimelineData[RANG]),--(J35&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3157,7 +3200,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:16">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E36" s="4" t="str">
         <f>IFERROR(RANK(F36,ProjectTimelineData[RANG])+SUMPRODUCT(--(F36=ProjectTimelineData[RANG]),--(J36&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3199,7 +3242,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:16">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E37" s="4" t="str">
         <f>IFERROR(RANK(F37,ProjectTimelineData[RANG])+SUMPRODUCT(--(F37=ProjectTimelineData[RANG]),--(J37&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3241,7 +3284,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:16">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E38" s="4" t="str">
         <f>IFERROR(RANK(F38,ProjectTimelineData[RANG])+SUMPRODUCT(--(F38=ProjectTimelineData[RANG]),--(J38&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3283,7 +3326,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:16">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E39" s="4" t="str">
         <f>IFERROR(RANK(F39,ProjectTimelineData[RANG])+SUMPRODUCT(--(F39=ProjectTimelineData[RANG]),--(J39&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3325,7 +3368,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:16">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E40" s="4" t="str">
         <f>IFERROR(RANK(F40,ProjectTimelineData[RANG])+SUMPRODUCT(--(F40=ProjectTimelineData[RANG]),--(J40&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3367,7 +3410,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:16">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E41" s="4" t="str">
         <f>IFERROR(RANK(F41,ProjectTimelineData[RANG])+SUMPRODUCT(--(F41=ProjectTimelineData[RANG]),--(J41&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3409,7 +3452,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:16">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E42" s="4" t="str">
         <f>IFERROR(RANK(F42,ProjectTimelineData[RANG])+SUMPRODUCT(--(F42=ProjectTimelineData[RANG]),--(J42&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3451,7 +3494,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:16">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E43" s="4" t="str">
         <f>IFERROR(RANK(F43,ProjectTimelineData[RANG])+SUMPRODUCT(--(F43=ProjectTimelineData[RANG]),--(J43&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3493,7 +3536,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="5:16">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E44" s="4" t="str">
         <f>IFERROR(RANK(F44,ProjectTimelineData[RANG])+SUMPRODUCT(--(F44=ProjectTimelineData[RANG]),--(J44&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3535,7 +3578,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="5:16">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E45" s="4" t="str">
         <f>IFERROR(RANK(F45,ProjectTimelineData[RANG])+SUMPRODUCT(--(F45=ProjectTimelineData[RANG]),--(J45&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3577,7 +3620,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:16">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E46" s="4" t="str">
         <f>IFERROR(RANK(F46,ProjectTimelineData[RANG])+SUMPRODUCT(--(F46=ProjectTimelineData[RANG]),--(J46&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3619,7 +3662,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:16">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E47" s="4" t="str">
         <f>IFERROR(RANK(F47,ProjectTimelineData[RANG])+SUMPRODUCT(--(F47=ProjectTimelineData[RANG]),--(J47&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3661,7 +3704,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:16">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E48" s="4" t="str">
         <f>IFERROR(RANK(F48,ProjectTimelineData[RANG])+SUMPRODUCT(--(F48=ProjectTimelineData[RANG]),--(J48&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3703,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="5:16">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E49" s="4" t="str">
         <f>IFERROR(RANK(F49,ProjectTimelineData[RANG])+SUMPRODUCT(--(F49=ProjectTimelineData[RANG]),--(J49&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3745,7 +3788,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="5:16">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E50" s="4" t="str">
         <f>IFERROR(RANK(F50,ProjectTimelineData[RANG])+SUMPRODUCT(--(F50=ProjectTimelineData[RANG]),--(J50&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3787,7 +3830,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="5:16">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E51" s="4" t="str">
         <f>IFERROR(RANK(F51,ProjectTimelineData[RANG])+SUMPRODUCT(--(F51=ProjectTimelineData[RANG]),--(J51&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3829,7 +3872,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:16">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E52" s="4" t="str">
         <f>IFERROR(RANK(F52,ProjectTimelineData[RANG])+SUMPRODUCT(--(F52=ProjectTimelineData[RANG]),--(J52&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3871,7 +3914,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:16">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E53" s="4" t="str">
         <f>IFERROR(RANK(F53,ProjectTimelineData[RANG])+SUMPRODUCT(--(F53=ProjectTimelineData[RANG]),--(J53&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3913,7 +3956,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:16">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E54" s="4" t="str">
         <f>IFERROR(RANK(F54,ProjectTimelineData[RANG])+SUMPRODUCT(--(F54=ProjectTimelineData[RANG]),--(J54&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3955,7 +3998,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:16">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E55" s="4" t="str">
         <f>IFERROR(RANK(F55,ProjectTimelineData[RANG])+SUMPRODUCT(--(F55=ProjectTimelineData[RANG]),--(J55&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -3997,7 +4040,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="5:16">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E56" s="4" t="str">
         <f>IFERROR(RANK(F56,ProjectTimelineData[RANG])+SUMPRODUCT(--(F56=ProjectTimelineData[RANG]),--(J56&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4039,7 +4082,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="5:16">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E57" s="4" t="str">
         <f>IFERROR(RANK(F57,ProjectTimelineData[RANG])+SUMPRODUCT(--(F57=ProjectTimelineData[RANG]),--(J57&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4081,7 +4124,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:16">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E58" s="4" t="str">
         <f>IFERROR(RANK(F58,ProjectTimelineData[RANG])+SUMPRODUCT(--(F58=ProjectTimelineData[RANG]),--(J58&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4123,7 +4166,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:16">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E59" s="4" t="str">
         <f>IFERROR(RANK(F59,ProjectTimelineData[RANG])+SUMPRODUCT(--(F59=ProjectTimelineData[RANG]),--(J59&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4165,7 +4208,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="5:16">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E60" s="4" t="str">
         <f>IFERROR(RANK(F60,ProjectTimelineData[RANG])+SUMPRODUCT(--(F60=ProjectTimelineData[RANG]),--(J60&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4207,7 +4250,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="5:16">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E61" s="4" t="str">
         <f>IFERROR(RANK(F61,ProjectTimelineData[RANG])+SUMPRODUCT(--(F61=ProjectTimelineData[RANG]),--(J61&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4249,7 +4292,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="5:16">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E62" s="4" t="str">
         <f>IFERROR(RANK(F62,ProjectTimelineData[RANG])+SUMPRODUCT(--(F62=ProjectTimelineData[RANG]),--(J62&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4291,7 +4334,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:16">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E63" s="4" t="str">
         <f>IFERROR(RANK(F63,ProjectTimelineData[RANG])+SUMPRODUCT(--(F63=ProjectTimelineData[RANG]),--(J63&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4333,7 +4376,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:16">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E64" s="4" t="str">
         <f>IFERROR(RANK(F64,ProjectTimelineData[RANG])+SUMPRODUCT(--(F64=ProjectTimelineData[RANG]),--(J64&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4375,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="5:16">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E65" s="4" t="str">
         <f>IFERROR(RANK(F65,ProjectTimelineData[RANG])+SUMPRODUCT(--(F65=ProjectTimelineData[RANG]),--(J65&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4417,7 +4460,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="5:16">
+    <row r="66" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E66" s="4" t="str">
         <f>IFERROR(RANK(F66,ProjectTimelineData[RANG])+SUMPRODUCT(--(F66=ProjectTimelineData[RANG]),--(J66&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4459,7 +4502,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="5:16">
+    <row r="67" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E67" s="4" t="str">
         <f>IFERROR(RANK(F67,ProjectTimelineData[RANG])+SUMPRODUCT(--(F67=ProjectTimelineData[RANG]),--(J67&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4501,7 +4544,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:16">
+    <row r="68" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E68" s="4" t="str">
         <f>IFERROR(RANK(F68,ProjectTimelineData[RANG])+SUMPRODUCT(--(F68=ProjectTimelineData[RANG]),--(J68&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4543,7 +4586,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="5:16">
+    <row r="69" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E69" s="4" t="str">
         <f>IFERROR(RANK(F69,ProjectTimelineData[RANG])+SUMPRODUCT(--(F69=ProjectTimelineData[RANG]),--(J69&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4585,7 +4628,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:16">
+    <row r="70" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E70" s="4" t="str">
         <f>IFERROR(RANK(F70,ProjectTimelineData[RANG])+SUMPRODUCT(--(F70=ProjectTimelineData[RANG]),--(J70&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4627,7 +4670,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="5:16">
+    <row r="71" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E71" s="4" t="str">
         <f>IFERROR(RANK(F71,ProjectTimelineData[RANG])+SUMPRODUCT(--(F71=ProjectTimelineData[RANG]),--(J71&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4669,7 +4712,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="5:16">
+    <row r="72" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E72" s="4" t="str">
         <f>IFERROR(RANK(F72,ProjectTimelineData[RANG])+SUMPRODUCT(--(F72=ProjectTimelineData[RANG]),--(J72&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4711,7 +4754,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="5:16">
+    <row r="73" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E73" s="4" t="str">
         <f>IFERROR(RANK(F73,ProjectTimelineData[RANG])+SUMPRODUCT(--(F73=ProjectTimelineData[RANG]),--(J73&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4753,7 +4796,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="5:16">
+    <row r="74" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E74" s="4" t="str">
         <f>IFERROR(RANK(F74,ProjectTimelineData[RANG])+SUMPRODUCT(--(F74=ProjectTimelineData[RANG]),--(J74&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4795,7 +4838,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="5:16">
+    <row r="75" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E75" s="4" t="str">
         <f>IFERROR(RANK(F75,ProjectTimelineData[RANG])+SUMPRODUCT(--(F75=ProjectTimelineData[RANG]),--(J75&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4837,7 +4880,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="5:16">
+    <row r="76" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E76" s="4" t="str">
         <f>IFERROR(RANK(F76,ProjectTimelineData[RANG])+SUMPRODUCT(--(F76=ProjectTimelineData[RANG]),--(J76&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4879,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:16">
+    <row r="77" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E77" s="4" t="str">
         <f>IFERROR(RANK(F77,ProjectTimelineData[RANG])+SUMPRODUCT(--(F77=ProjectTimelineData[RANG]),--(J77&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4921,7 +4964,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="5:16">
+    <row r="78" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E78" s="4" t="str">
         <f>IFERROR(RANK(F78,ProjectTimelineData[RANG])+SUMPRODUCT(--(F78=ProjectTimelineData[RANG]),--(J78&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -4963,7 +5006,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="5:16">
+    <row r="79" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E79" s="4" t="str">
         <f>IFERROR(RANK(F79,ProjectTimelineData[RANG])+SUMPRODUCT(--(F79=ProjectTimelineData[RANG]),--(J79&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5005,7 +5048,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="5:16">
+    <row r="80" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E80" s="4" t="str">
         <f>IFERROR(RANK(F80,ProjectTimelineData[RANG])+SUMPRODUCT(--(F80=ProjectTimelineData[RANG]),--(J80&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5047,7 +5090,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:16">
+    <row r="81" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E81" s="4" t="str">
         <f>IFERROR(RANK(F81,ProjectTimelineData[RANG])+SUMPRODUCT(--(F81=ProjectTimelineData[RANG]),--(J81&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5089,7 +5132,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:16">
+    <row r="82" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E82" s="4" t="str">
         <f>IFERROR(RANK(F82,ProjectTimelineData[RANG])+SUMPRODUCT(--(F82=ProjectTimelineData[RANG]),--(J82&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5131,7 +5174,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:16">
+    <row r="83" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E83" s="4" t="str">
         <f>IFERROR(RANK(F83,ProjectTimelineData[RANG])+SUMPRODUCT(--(F83=ProjectTimelineData[RANG]),--(J83&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5173,7 +5216,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:16">
+    <row r="84" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E84" s="4" t="str">
         <f>IFERROR(RANK(F84,ProjectTimelineData[RANG])+SUMPRODUCT(--(F84=ProjectTimelineData[RANG]),--(J84&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5215,7 +5258,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:16">
+    <row r="85" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E85" s="4" t="str">
         <f>IFERROR(RANK(F85,ProjectTimelineData[RANG])+SUMPRODUCT(--(F85=ProjectTimelineData[RANG]),--(J85&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5257,7 +5300,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:16">
+    <row r="86" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E86" s="4" t="str">
         <f>IFERROR(RANK(F86,ProjectTimelineData[RANG])+SUMPRODUCT(--(F86=ProjectTimelineData[RANG]),--(J86&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5299,7 +5342,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:16">
+    <row r="87" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E87" s="4" t="str">
         <f>IFERROR(RANK(F87,ProjectTimelineData[RANG])+SUMPRODUCT(--(F87=ProjectTimelineData[RANG]),--(J87&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5341,7 +5384,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:16">
+    <row r="88" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E88" s="4" t="str">
         <f>IFERROR(RANK(F88,ProjectTimelineData[RANG])+SUMPRODUCT(--(F88=ProjectTimelineData[RANG]),--(J88&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5383,7 +5426,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:16">
+    <row r="89" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E89" s="4" t="str">
         <f>IFERROR(RANK(F89,ProjectTimelineData[RANG])+SUMPRODUCT(--(F89=ProjectTimelineData[RANG]),--(J89&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5425,7 +5468,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:16">
+    <row r="90" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E90" s="4" t="str">
         <f>IFERROR(RANK(F90,ProjectTimelineData[RANG])+SUMPRODUCT(--(F90=ProjectTimelineData[RANG]),--(J90&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5467,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:16">
+    <row r="91" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E91" s="4" t="str">
         <f>IFERROR(RANK(F91,ProjectTimelineData[RANG])+SUMPRODUCT(--(F91=ProjectTimelineData[RANG]),--(J91&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5509,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:16">
+    <row r="92" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E92" s="4" t="str">
         <f>IFERROR(RANK(F92,ProjectTimelineData[RANG])+SUMPRODUCT(--(F92=ProjectTimelineData[RANG]),--(J92&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5551,7 +5594,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:16">
+    <row r="93" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E93" s="4" t="str">
         <f>IFERROR(RANK(F93,ProjectTimelineData[RANG])+SUMPRODUCT(--(F93=ProjectTimelineData[RANG]),--(J93&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5593,7 +5636,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:16">
+    <row r="94" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E94" s="4" t="str">
         <f>IFERROR(RANK(F94,ProjectTimelineData[RANG])+SUMPRODUCT(--(F94=ProjectTimelineData[RANG]),--(J94&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5635,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:16">
+    <row r="95" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E95" s="4" t="str">
         <f>IFERROR(RANK(F95,ProjectTimelineData[RANG])+SUMPRODUCT(--(F95=ProjectTimelineData[RANG]),--(J95&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5677,7 +5720,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:16">
+    <row r="96" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E96" s="4" t="str">
         <f>IFERROR(RANK(F96,ProjectTimelineData[RANG])+SUMPRODUCT(--(F96=ProjectTimelineData[RANG]),--(J96&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5719,7 +5762,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:16">
+    <row r="97" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E97" s="4" t="str">
         <f>IFERROR(RANK(F97,ProjectTimelineData[RANG])+SUMPRODUCT(--(F97=ProjectTimelineData[RANG]),--(J97&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5761,7 +5804,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="5:16">
+    <row r="98" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E98" s="4" t="str">
         <f>IFERROR(RANK(F98,ProjectTimelineData[RANG])+SUMPRODUCT(--(F98=ProjectTimelineData[RANG]),--(J98&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5803,7 +5846,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="5:16">
+    <row r="99" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E99" s="4" t="str">
         <f>IFERROR(RANK(F99,ProjectTimelineData[RANG])+SUMPRODUCT(--(F99=ProjectTimelineData[RANG]),--(J99&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5845,7 +5888,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="5:16">
+    <row r="100" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E100" s="4" t="str">
         <f>IFERROR(RANK(F100,ProjectTimelineData[RANG])+SUMPRODUCT(--(F100=ProjectTimelineData[RANG]),--(J100&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5887,7 +5930,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="5:16">
+    <row r="101" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E101" s="4" t="str">
         <f>IFERROR(RANK(F101,ProjectTimelineData[RANG])+SUMPRODUCT(--(F101=ProjectTimelineData[RANG]),--(J101&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5929,7 +5972,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="5:16">
+    <row r="102" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E102" s="4" t="str">
         <f>IFERROR(RANK(F102,ProjectTimelineData[RANG])+SUMPRODUCT(--(F102=ProjectTimelineData[RANG]),--(J102&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -5971,7 +6014,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="5:16">
+    <row r="103" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E103" s="4" t="str">
         <f>IFERROR(RANK(F103,ProjectTimelineData[RANG])+SUMPRODUCT(--(F103=ProjectTimelineData[RANG]),--(J103&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6013,7 +6056,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="5:16">
+    <row r="104" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E104" s="4" t="str">
         <f>IFERROR(RANK(F104,ProjectTimelineData[RANG])+SUMPRODUCT(--(F104=ProjectTimelineData[RANG]),--(J104&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6055,7 +6098,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="5:16">
+    <row r="105" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E105" s="4" t="str">
         <f>IFERROR(RANK(F105,ProjectTimelineData[RANG])+SUMPRODUCT(--(F105=ProjectTimelineData[RANG]),--(J105&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6097,7 +6140,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="5:16">
+    <row r="106" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E106" s="4" t="str">
         <f>IFERROR(RANK(F106,ProjectTimelineData[RANG])+SUMPRODUCT(--(F106=ProjectTimelineData[RANG]),--(J106&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6139,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="5:16">
+    <row r="107" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E107" s="4" t="str">
         <f>IFERROR(RANK(F107,ProjectTimelineData[RANG])+SUMPRODUCT(--(F107=ProjectTimelineData[RANG]),--(J107&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6181,7 +6224,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="5:16">
+    <row r="108" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E108" s="4" t="str">
         <f>IFERROR(RANK(F108,ProjectTimelineData[RANG])+SUMPRODUCT(--(F108=ProjectTimelineData[RANG]),--(J108&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6223,7 +6266,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="5:16">
+    <row r="109" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E109" s="4" t="str">
         <f>IFERROR(RANK(F109,ProjectTimelineData[RANG])+SUMPRODUCT(--(F109=ProjectTimelineData[RANG]),--(J109&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6265,7 +6308,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="5:16">
+    <row r="110" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E110" s="4" t="str">
         <f>IFERROR(RANK(F110,ProjectTimelineData[RANG])+SUMPRODUCT(--(F110=ProjectTimelineData[RANG]),--(J110&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6307,7 +6350,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="5:16">
+    <row r="111" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E111" s="4" t="str">
         <f>IFERROR(RANK(F111,ProjectTimelineData[RANG])+SUMPRODUCT(--(F111=ProjectTimelineData[RANG]),--(J111&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6349,7 +6392,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="5:16">
+    <row r="112" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E112" s="4" t="str">
         <f>IFERROR(RANK(F112,ProjectTimelineData[RANG])+SUMPRODUCT(--(F112=ProjectTimelineData[RANG]),--(J112&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6391,7 +6434,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="5:16">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113" s="4" t="str">
         <f>IFERROR(RANK(F113,ProjectTimelineData[RANG])+SUMPRODUCT(--(F113=ProjectTimelineData[RANG]),--(J113&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6433,7 +6476,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="5:16">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114" s="4" t="str">
         <f>IFERROR(RANK(F114,ProjectTimelineData[RANG])+SUMPRODUCT(--(F114=ProjectTimelineData[RANG]),--(J114&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6475,7 +6518,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="5:16">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115" s="4" t="str">
         <f>IFERROR(RANK(F115,ProjectTimelineData[RANG])+SUMPRODUCT(--(F115=ProjectTimelineData[RANG]),--(J115&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6517,7 +6560,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="5:16">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E116" s="4" t="str">
         <f>IFERROR(RANK(F116,ProjectTimelineData[RANG])+SUMPRODUCT(--(F116=ProjectTimelineData[RANG]),--(J116&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6559,7 +6602,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="5:16">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E117" s="4" t="str">
         <f>IFERROR(RANK(F117,ProjectTimelineData[RANG])+SUMPRODUCT(--(F117=ProjectTimelineData[RANG]),--(J117&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6601,7 +6644,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="5:16">
+    <row r="118" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E118" s="4" t="str">
         <f>IFERROR(RANK(F118,ProjectTimelineData[RANG])+SUMPRODUCT(--(F118=ProjectTimelineData[RANG]),--(J118&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6643,7 +6686,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="5:16">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119" s="4" t="str">
         <f>IFERROR(RANK(F119,ProjectTimelineData[RANG])+SUMPRODUCT(--(F119=ProjectTimelineData[RANG]),--(J119&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6685,7 +6728,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="5:16">
+    <row r="120" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E120" s="4" t="str">
         <f>IFERROR(RANK(F120,ProjectTimelineData[RANG])+SUMPRODUCT(--(F120=ProjectTimelineData[RANG]),--(J120&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6727,7 +6770,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="5:16">
+    <row r="121" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E121" s="4" t="str">
         <f>IFERROR(RANK(F121,ProjectTimelineData[RANG])+SUMPRODUCT(--(F121=ProjectTimelineData[RANG]),--(J121&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6769,7 +6812,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="5:16">
+    <row r="122" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E122" s="4" t="str">
         <f>IFERROR(RANK(F122,ProjectTimelineData[RANG])+SUMPRODUCT(--(F122=ProjectTimelineData[RANG]),--(J122&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6811,7 +6854,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="5:16">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E123" s="4" t="str">
         <f>IFERROR(RANK(F123,ProjectTimelineData[RANG])+SUMPRODUCT(--(F123=ProjectTimelineData[RANG]),--(J123&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6853,7 +6896,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="5:16">
+    <row r="124" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E124" s="4" t="str">
         <f>IFERROR(RANK(F124,ProjectTimelineData[RANG])+SUMPRODUCT(--(F124=ProjectTimelineData[RANG]),--(J124&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6895,7 +6938,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="5:16">
+    <row r="125" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E125" s="4" t="str">
         <f>IFERROR(RANK(F125,ProjectTimelineData[RANG])+SUMPRODUCT(--(F125=ProjectTimelineData[RANG]),--(J125&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6937,7 +6980,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="5:16">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E126" s="4" t="str">
         <f>IFERROR(RANK(F126,ProjectTimelineData[RANG])+SUMPRODUCT(--(F126=ProjectTimelineData[RANG]),--(J126&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -6979,7 +7022,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="5:16">
+    <row r="127" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E127" s="4" t="str">
         <f>IFERROR(RANK(F127,ProjectTimelineData[RANG])+SUMPRODUCT(--(F127=ProjectTimelineData[RANG]),--(J127&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7021,7 +7064,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="5:16">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E128" s="4" t="str">
         <f>IFERROR(RANK(F128,ProjectTimelineData[RANG])+SUMPRODUCT(--(F128=ProjectTimelineData[RANG]),--(J128&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7063,7 +7106,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="5:16">
+    <row r="129" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E129" s="4" t="str">
         <f>IFERROR(RANK(F129,ProjectTimelineData[RANG])+SUMPRODUCT(--(F129=ProjectTimelineData[RANG]),--(J129&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7105,7 +7148,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="5:16">
+    <row r="130" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E130" s="4" t="str">
         <f>IFERROR(RANK(F130,ProjectTimelineData[RANG])+SUMPRODUCT(--(F130=ProjectTimelineData[RANG]),--(J130&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7147,7 +7190,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="5:16">
+    <row r="131" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E131" s="4" t="str">
         <f>IFERROR(RANK(F131,ProjectTimelineData[RANG])+SUMPRODUCT(--(F131=ProjectTimelineData[RANG]),--(J131&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7189,7 +7232,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="5:16">
+    <row r="132" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E132" s="4" t="str">
         <f>IFERROR(RANK(F132,ProjectTimelineData[RANG])+SUMPRODUCT(--(F132=ProjectTimelineData[RANG]),--(J132&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7231,7 +7274,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="5:16">
+    <row r="133" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E133" s="4" t="str">
         <f>IFERROR(RANK(F133,ProjectTimelineData[RANG])+SUMPRODUCT(--(F133=ProjectTimelineData[RANG]),--(J133&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7273,7 +7316,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="5:16">
+    <row r="134" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E134" s="4" t="str">
         <f>IFERROR(RANK(F134,ProjectTimelineData[RANG])+SUMPRODUCT(--(F134=ProjectTimelineData[RANG]),--(J134&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7315,7 +7358,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="5:16">
+    <row r="135" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E135" s="4" t="str">
         <f>IFERROR(RANK(F135,ProjectTimelineData[RANG])+SUMPRODUCT(--(F135=ProjectTimelineData[RANG]),--(J135&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7357,7 +7400,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="5:16">
+    <row r="136" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E136" s="4" t="str">
         <f>IFERROR(RANK(F136,ProjectTimelineData[RANG])+SUMPRODUCT(--(F136=ProjectTimelineData[RANG]),--(J136&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7399,7 +7442,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="5:16">
+    <row r="137" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E137" s="4" t="str">
         <f>IFERROR(RANK(F137,ProjectTimelineData[RANG])+SUMPRODUCT(--(F137=ProjectTimelineData[RANG]),--(J137&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7441,7 +7484,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="5:16">
+    <row r="138" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E138" s="4" t="str">
         <f>IFERROR(RANK(F138,ProjectTimelineData[RANG])+SUMPRODUCT(--(F138=ProjectTimelineData[RANG]),--(J138&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7483,7 +7526,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="5:16">
+    <row r="139" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E139" s="4" t="str">
         <f>IFERROR(RANK(F139,ProjectTimelineData[RANG])+SUMPRODUCT(--(F139=ProjectTimelineData[RANG]),--(J139&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7525,7 +7568,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="5:16">
+    <row r="140" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E140" s="4" t="str">
         <f>IFERROR(RANK(F140,ProjectTimelineData[RANG])+SUMPRODUCT(--(F140=ProjectTimelineData[RANG]),--(J140&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7567,7 +7610,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="5:16">
+    <row r="141" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E141" s="4" t="str">
         <f>IFERROR(RANK(F141,ProjectTimelineData[RANG])+SUMPRODUCT(--(F141=ProjectTimelineData[RANG]),--(J141&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7609,7 +7652,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="5:16">
+    <row r="142" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E142" s="4" t="str">
         <f>IFERROR(RANK(F142,ProjectTimelineData[RANG])+SUMPRODUCT(--(F142=ProjectTimelineData[RANG]),--(J142&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7651,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="5:16">
+    <row r="143" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E143" s="4" t="str">
         <f>IFERROR(RANK(F143,ProjectTimelineData[RANG])+SUMPRODUCT(--(F143=ProjectTimelineData[RANG]),--(J143&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7693,7 +7736,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="5:16">
+    <row r="144" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E144" s="4" t="str">
         <f>IFERROR(RANK(F144,ProjectTimelineData[RANG])+SUMPRODUCT(--(F144=ProjectTimelineData[RANG]),--(J144&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7735,7 +7778,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="5:16">
+    <row r="145" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E145" s="4" t="str">
         <f>IFERROR(RANK(F145,ProjectTimelineData[RANG])+SUMPRODUCT(--(F145=ProjectTimelineData[RANG]),--(J145&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7777,7 +7820,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="5:16">
+    <row r="146" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E146" s="4" t="str">
         <f>IFERROR(RANK(F146,ProjectTimelineData[RANG])+SUMPRODUCT(--(F146=ProjectTimelineData[RANG]),--(J146&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7819,7 +7862,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="5:16">
+    <row r="147" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E147" s="4" t="str">
         <f>IFERROR(RANK(F147,ProjectTimelineData[RANG])+SUMPRODUCT(--(F147=ProjectTimelineData[RANG]),--(J147&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7861,7 +7904,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="5:16">
+    <row r="148" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E148" s="4" t="str">
         <f>IFERROR(RANK(F148,ProjectTimelineData[RANG])+SUMPRODUCT(--(F148=ProjectTimelineData[RANG]),--(J148&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7903,7 +7946,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="5:16">
+    <row r="149" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E149" s="4" t="str">
         <f>IFERROR(RANK(F149,ProjectTimelineData[RANG])+SUMPRODUCT(--(F149=ProjectTimelineData[RANG]),--(J149&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7945,7 +7988,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="5:16">
+    <row r="150" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E150" s="4" t="str">
         <f>IFERROR(RANK(F150,ProjectTimelineData[RANG])+SUMPRODUCT(--(F150=ProjectTimelineData[RANG]),--(J150&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -7987,7 +8030,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="5:16">
+    <row r="151" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E151" s="4" t="str">
         <f>IFERROR(RANK(F151,ProjectTimelineData[RANG])+SUMPRODUCT(--(F151=ProjectTimelineData[RANG]),--(J151&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8029,7 +8072,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="5:16">
+    <row r="152" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E152" s="4" t="str">
         <f>IFERROR(RANK(F152,ProjectTimelineData[RANG])+SUMPRODUCT(--(F152=ProjectTimelineData[RANG]),--(J152&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8071,7 +8114,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="5:16">
+    <row r="153" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E153" s="4" t="str">
         <f>IFERROR(RANK(F153,ProjectTimelineData[RANG])+SUMPRODUCT(--(F153=ProjectTimelineData[RANG]),--(J153&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8113,7 +8156,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="5:16">
+    <row r="154" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E154" s="4" t="str">
         <f>IFERROR(RANK(F154,ProjectTimelineData[RANG])+SUMPRODUCT(--(F154=ProjectTimelineData[RANG]),--(J154&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8155,7 +8198,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="5:16">
+    <row r="155" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E155" s="4" t="str">
         <f>IFERROR(RANK(F155,ProjectTimelineData[RANG])+SUMPRODUCT(--(F155=ProjectTimelineData[RANG]),--(J155&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8197,7 +8240,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="5:16">
+    <row r="156" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E156" s="4" t="str">
         <f>IFERROR(RANK(F156,ProjectTimelineData[RANG])+SUMPRODUCT(--(F156=ProjectTimelineData[RANG]),--(J156&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8239,7 +8282,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="5:16">
+    <row r="157" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E157" s="4" t="str">
         <f>IFERROR(RANK(F157,ProjectTimelineData[RANG])+SUMPRODUCT(--(F157=ProjectTimelineData[RANG]),--(J157&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8281,7 +8324,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="5:16">
+    <row r="158" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E158" s="4" t="str">
         <f>IFERROR(RANK(F158,ProjectTimelineData[RANG])+SUMPRODUCT(--(F158=ProjectTimelineData[RANG]),--(J158&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8323,7 +8366,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="5:16">
+    <row r="159" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E159" s="4" t="str">
         <f>IFERROR(RANK(F159,ProjectTimelineData[RANG])+SUMPRODUCT(--(F159=ProjectTimelineData[RANG]),--(J159&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8365,7 +8408,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="5:16">
+    <row r="160" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E160" s="4" t="str">
         <f>IFERROR(RANK(F160,ProjectTimelineData[RANG])+SUMPRODUCT(--(F160=ProjectTimelineData[RANG]),--(J160&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8407,7 +8450,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="5:16">
+    <row r="161" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E161" s="4" t="str">
         <f>IFERROR(RANK(F161,ProjectTimelineData[RANG])+SUMPRODUCT(--(F161=ProjectTimelineData[RANG]),--(J161&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8449,7 +8492,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="5:16">
+    <row r="162" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E162" s="4" t="str">
         <f>IFERROR(RANK(F162,ProjectTimelineData[RANG])+SUMPRODUCT(--(F162=ProjectTimelineData[RANG]),--(J162&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8491,7 +8534,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="5:16">
+    <row r="163" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E163" s="4" t="str">
         <f>IFERROR(RANK(F163,ProjectTimelineData[RANG])+SUMPRODUCT(--(F163=ProjectTimelineData[RANG]),--(J163&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8533,7 +8576,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="5:16">
+    <row r="164" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E164" s="4" t="str">
         <f>IFERROR(RANK(F164,ProjectTimelineData[RANG])+SUMPRODUCT(--(F164=ProjectTimelineData[RANG]),--(J164&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8575,7 +8618,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="5:16">
+    <row r="165" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E165" s="4" t="str">
         <f>IFERROR(RANK(F165,ProjectTimelineData[RANG])+SUMPRODUCT(--(F165=ProjectTimelineData[RANG]),--(J165&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8617,7 +8660,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="5:16">
+    <row r="166" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E166" s="4" t="str">
         <f>IFERROR(RANK(F166,ProjectTimelineData[RANG])+SUMPRODUCT(--(F166=ProjectTimelineData[RANG]),--(J166&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8659,7 +8702,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="5:16">
+    <row r="167" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E167" s="4" t="str">
         <f>IFERROR(RANK(F167,ProjectTimelineData[RANG])+SUMPRODUCT(--(F167=ProjectTimelineData[RANG]),--(J167&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8701,7 +8744,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="5:16">
+    <row r="168" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E168" s="4" t="str">
         <f>IFERROR(RANK(F168,ProjectTimelineData[RANG])+SUMPRODUCT(--(F168=ProjectTimelineData[RANG]),--(J168&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8743,7 +8786,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="5:16">
+    <row r="169" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E169" s="4" t="str">
         <f>IFERROR(RANK(F169,ProjectTimelineData[RANG])+SUMPRODUCT(--(F169=ProjectTimelineData[RANG]),--(J169&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8785,7 +8828,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="5:16">
+    <row r="170" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E170" s="4" t="str">
         <f>IFERROR(RANK(F170,ProjectTimelineData[RANG])+SUMPRODUCT(--(F170=ProjectTimelineData[RANG]),--(J170&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8827,7 +8870,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="5:16">
+    <row r="171" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E171" s="4" t="str">
         <f>IFERROR(RANK(F171,ProjectTimelineData[RANG])+SUMPRODUCT(--(F171=ProjectTimelineData[RANG]),--(J171&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8869,7 +8912,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="5:16">
+    <row r="172" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E172" s="4" t="str">
         <f>IFERROR(RANK(F172,ProjectTimelineData[RANG])+SUMPRODUCT(--(F172=ProjectTimelineData[RANG]),--(J172&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8911,7 +8954,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="5:16">
+    <row r="173" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E173" s="4" t="str">
         <f>IFERROR(RANK(F173,ProjectTimelineData[RANG])+SUMPRODUCT(--(F173=ProjectTimelineData[RANG]),--(J173&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8953,7 +8996,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="5:16">
+    <row r="174" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E174" s="4" t="str">
         <f>IFERROR(RANK(F174,ProjectTimelineData[RANG])+SUMPRODUCT(--(F174=ProjectTimelineData[RANG]),--(J174&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -8995,7 +9038,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="5:16">
+    <row r="175" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E175" s="4" t="str">
         <f>IFERROR(RANK(F175,ProjectTimelineData[RANG])+SUMPRODUCT(--(F175=ProjectTimelineData[RANG]),--(J175&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9037,7 +9080,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="5:16">
+    <row r="176" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E176" s="4" t="str">
         <f>IFERROR(RANK(F176,ProjectTimelineData[RANG])+SUMPRODUCT(--(F176=ProjectTimelineData[RANG]),--(J176&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9079,7 +9122,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="5:16">
+    <row r="177" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E177" s="4" t="str">
         <f>IFERROR(RANK(F177,ProjectTimelineData[RANG])+SUMPRODUCT(--(F177=ProjectTimelineData[RANG]),--(J177&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9121,7 +9164,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="5:16">
+    <row r="178" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E178" s="4" t="str">
         <f>IFERROR(RANK(F178,ProjectTimelineData[RANG])+SUMPRODUCT(--(F178=ProjectTimelineData[RANG]),--(J178&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9163,7 +9206,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="5:16">
+    <row r="179" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E179" s="4" t="str">
         <f>IFERROR(RANK(F179,ProjectTimelineData[RANG])+SUMPRODUCT(--(F179=ProjectTimelineData[RANG]),--(J179&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9205,7 +9248,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="5:16">
+    <row r="180" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E180" s="4" t="str">
         <f>IFERROR(RANK(F180,ProjectTimelineData[RANG])+SUMPRODUCT(--(F180=ProjectTimelineData[RANG]),--(J180&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9247,7 +9290,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="5:16">
+    <row r="181" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E181" s="4" t="str">
         <f>IFERROR(RANK(F181,ProjectTimelineData[RANG])+SUMPRODUCT(--(F181=ProjectTimelineData[RANG]),--(J181&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9289,7 +9332,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:16">
+    <row r="182" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E182" s="4" t="str">
         <f>IFERROR(RANK(F182,ProjectTimelineData[RANG])+SUMPRODUCT(--(F182=ProjectTimelineData[RANG]),--(J182&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9331,7 +9374,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:16">
+    <row r="183" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E183" s="4" t="str">
         <f>IFERROR(RANK(F183,ProjectTimelineData[RANG])+SUMPRODUCT(--(F183=ProjectTimelineData[RANG]),--(J183&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9373,7 +9416,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:16">
+    <row r="184" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E184" s="4" t="str">
         <f>IFERROR(RANK(F184,ProjectTimelineData[RANG])+SUMPRODUCT(--(F184=ProjectTimelineData[RANG]),--(J184&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9415,7 +9458,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:16">
+    <row r="185" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E185" s="4" t="str">
         <f>IFERROR(RANK(F185,ProjectTimelineData[RANG])+SUMPRODUCT(--(F185=ProjectTimelineData[RANG]),--(J185&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9457,7 +9500,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:16">
+    <row r="186" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E186" s="4" t="str">
         <f>IFERROR(RANK(F186,ProjectTimelineData[RANG])+SUMPRODUCT(--(F186=ProjectTimelineData[RANG]),--(J186&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9499,7 +9542,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="5:16">
+    <row r="187" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E187" s="4" t="str">
         <f>IFERROR(RANK(F187,ProjectTimelineData[RANG])+SUMPRODUCT(--(F187=ProjectTimelineData[RANG]),--(J187&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9541,7 +9584,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="5:16">
+    <row r="188" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E188" s="4" t="str">
         <f>IFERROR(RANK(F188,ProjectTimelineData[RANG])+SUMPRODUCT(--(F188=ProjectTimelineData[RANG]),--(J188&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9583,7 +9626,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="5:16">
+    <row r="189" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E189" s="4" t="str">
         <f>IFERROR(RANK(F189,ProjectTimelineData[RANG])+SUMPRODUCT(--(F189=ProjectTimelineData[RANG]),--(J189&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9625,7 +9668,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="5:16">
+    <row r="190" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E190" s="4" t="str">
         <f>IFERROR(RANK(F190,ProjectTimelineData[RANG])+SUMPRODUCT(--(F190=ProjectTimelineData[RANG]),--(J190&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9667,7 +9710,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="5:16">
+    <row r="191" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E191" s="4" t="str">
         <f>IFERROR(RANK(F191,ProjectTimelineData[RANG])+SUMPRODUCT(--(F191=ProjectTimelineData[RANG]),--(J191&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9709,7 +9752,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="5:16">
+    <row r="192" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E192" s="4" t="str">
         <f>IFERROR(RANK(F192,ProjectTimelineData[RANG])+SUMPRODUCT(--(F192=ProjectTimelineData[RANG]),--(J192&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9751,7 +9794,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="5:16">
+    <row r="193" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E193" s="4" t="str">
         <f>IFERROR(RANK(F193,ProjectTimelineData[RANG])+SUMPRODUCT(--(F193=ProjectTimelineData[RANG]),--(J193&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9793,7 +9836,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="5:16">
+    <row r="194" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E194" s="4" t="str">
         <f>IFERROR(RANK(F194,ProjectTimelineData[RANG])+SUMPRODUCT(--(F194=ProjectTimelineData[RANG]),--(J194&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9835,7 +9878,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="5:16">
+    <row r="195" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E195" s="4" t="str">
         <f>IFERROR(RANK(F195,ProjectTimelineData[RANG])+SUMPRODUCT(--(F195=ProjectTimelineData[RANG]),--(J195&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9877,7 +9920,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="5:16">
+    <row r="196" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E196" s="4" t="str">
         <f>IFERROR(RANK(F196,ProjectTimelineData[RANG])+SUMPRODUCT(--(F196=ProjectTimelineData[RANG]),--(J196&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9919,7 +9962,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="5:16">
+    <row r="197" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E197" s="4" t="str">
         <f>IFERROR(RANK(F197,ProjectTimelineData[RANG])+SUMPRODUCT(--(F197=ProjectTimelineData[RANG]),--(J197&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -9961,7 +10004,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="5:16">
+    <row r="198" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E198" s="4" t="str">
         <f>IFERROR(RANK(F198,ProjectTimelineData[RANG])+SUMPRODUCT(--(F198=ProjectTimelineData[RANG]),--(J198&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10003,7 +10046,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="5:16">
+    <row r="199" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E199" s="4" t="str">
         <f>IFERROR(RANK(F199,ProjectTimelineData[RANG])+SUMPRODUCT(--(F199=ProjectTimelineData[RANG]),--(J199&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10045,7 +10088,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="5:16">
+    <row r="200" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E200" s="4" t="str">
         <f>IFERROR(RANK(F200,ProjectTimelineData[RANG])+SUMPRODUCT(--(F200=ProjectTimelineData[RANG]),--(J200&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10087,7 +10130,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="5:16">
+    <row r="201" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E201" s="4" t="str">
         <f>IFERROR(RANK(F201,ProjectTimelineData[RANG])+SUMPRODUCT(--(F201=ProjectTimelineData[RANG]),--(J201&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10129,7 +10172,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="5:16">
+    <row r="202" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E202" s="4" t="str">
         <f>IFERROR(RANK(F202,ProjectTimelineData[RANG])+SUMPRODUCT(--(F202=ProjectTimelineData[RANG]),--(J202&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10171,7 +10214,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="5:16">
+    <row r="203" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E203" s="4" t="str">
         <f>IFERROR(RANK(F203,ProjectTimelineData[RANG])+SUMPRODUCT(--(F203=ProjectTimelineData[RANG]),--(J203&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10213,7 +10256,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="5:16">
+    <row r="204" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E204" s="4" t="str">
         <f>IFERROR(RANK(F204,ProjectTimelineData[RANG])+SUMPRODUCT(--(F204=ProjectTimelineData[RANG]),--(J204&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10255,7 +10298,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="5:16">
+    <row r="205" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E205" s="4" t="str">
         <f>IFERROR(RANK(F205,ProjectTimelineData[RANG])+SUMPRODUCT(--(F205=ProjectTimelineData[RANG]),--(J205&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10297,7 +10340,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="5:16">
+    <row r="206" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E206" s="4" t="str">
         <f>IFERROR(RANK(F206,ProjectTimelineData[RANG])+SUMPRODUCT(--(F206=ProjectTimelineData[RANG]),--(J206&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10339,7 +10382,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="5:16">
+    <row r="207" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E207" s="4" t="str">
         <f>IFERROR(RANK(F207,ProjectTimelineData[RANG])+SUMPRODUCT(--(F207=ProjectTimelineData[RANG]),--(J207&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10381,7 +10424,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="5:16">
+    <row r="208" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E208" s="4" t="str">
         <f>IFERROR(RANK(F208,ProjectTimelineData[RANG])+SUMPRODUCT(--(F208=ProjectTimelineData[RANG]),--(J208&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10423,7 +10466,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="5:16">
+    <row r="209" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E209" s="4" t="str">
         <f>IFERROR(RANK(F209,ProjectTimelineData[RANG])+SUMPRODUCT(--(F209=ProjectTimelineData[RANG]),--(J209&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10465,7 +10508,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="5:16">
+    <row r="210" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E210" s="4" t="str">
         <f>IFERROR(RANK(F210,ProjectTimelineData[RANG])+SUMPRODUCT(--(F210=ProjectTimelineData[RANG]),--(J210&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10507,7 +10550,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="5:16">
+    <row r="211" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E211" s="4" t="str">
         <f>IFERROR(RANK(F211,ProjectTimelineData[RANG])+SUMPRODUCT(--(F211=ProjectTimelineData[RANG]),--(J211&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10549,7 +10592,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="5:16">
+    <row r="212" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E212" s="4" t="str">
         <f>IFERROR(RANK(F212,ProjectTimelineData[RANG])+SUMPRODUCT(--(F212=ProjectTimelineData[RANG]),--(J212&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10591,7 +10634,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="5:16">
+    <row r="213" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E213" s="4" t="str">
         <f>IFERROR(RANK(F213,ProjectTimelineData[RANG])+SUMPRODUCT(--(F213=ProjectTimelineData[RANG]),--(J213&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10633,7 +10676,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="5:16">
+    <row r="214" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E214" s="4" t="str">
         <f>IFERROR(RANK(F214,ProjectTimelineData[RANG])+SUMPRODUCT(--(F214=ProjectTimelineData[RANG]),--(J214&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10675,7 +10718,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="5:16">
+    <row r="215" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E215" s="4" t="str">
         <f>IFERROR(RANK(F215,ProjectTimelineData[RANG])+SUMPRODUCT(--(F215=ProjectTimelineData[RANG]),--(J215&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10717,7 +10760,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="5:16">
+    <row r="216" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E216" s="4" t="str">
         <f>IFERROR(RANK(F216,ProjectTimelineData[RANG])+SUMPRODUCT(--(F216=ProjectTimelineData[RANG]),--(J216&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10759,7 +10802,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="5:16">
+    <row r="217" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E217" s="4" t="str">
         <f>IFERROR(RANK(F217,ProjectTimelineData[RANG])+SUMPRODUCT(--(F217=ProjectTimelineData[RANG]),--(J217&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10801,7 +10844,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="5:16">
+    <row r="218" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E218" s="4" t="str">
         <f>IFERROR(RANK(F218,ProjectTimelineData[RANG])+SUMPRODUCT(--(F218=ProjectTimelineData[RANG]),--(J218&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10843,7 +10886,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="5:16">
+    <row r="219" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E219" s="4" t="str">
         <f>IFERROR(RANK(F219,ProjectTimelineData[RANG])+SUMPRODUCT(--(F219=ProjectTimelineData[RANG]),--(J219&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10885,7 +10928,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="5:16">
+    <row r="220" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E220" s="4" t="str">
         <f>IFERROR(RANK(F220,ProjectTimelineData[RANG])+SUMPRODUCT(--(F220=ProjectTimelineData[RANG]),--(J220&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10927,7 +10970,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="5:16">
+    <row r="221" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E221" s="4" t="str">
         <f>IFERROR(RANK(F221,ProjectTimelineData[RANG])+SUMPRODUCT(--(F221=ProjectTimelineData[RANG]),--(J221&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -10969,7 +11012,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="5:16">
+    <row r="222" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E222" s="4" t="str">
         <f>IFERROR(RANK(F222,ProjectTimelineData[RANG])+SUMPRODUCT(--(F222=ProjectTimelineData[RANG]),--(J222&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11011,7 +11054,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="5:16">
+    <row r="223" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E223" s="4" t="str">
         <f>IFERROR(RANK(F223,ProjectTimelineData[RANG])+SUMPRODUCT(--(F223=ProjectTimelineData[RANG]),--(J223&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11053,7 +11096,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="5:16">
+    <row r="224" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E224" s="4" t="str">
         <f>IFERROR(RANK(F224,ProjectTimelineData[RANG])+SUMPRODUCT(--(F224=ProjectTimelineData[RANG]),--(J224&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11095,7 +11138,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="5:16">
+    <row r="225" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E225" s="4" t="str">
         <f>IFERROR(RANK(F225,ProjectTimelineData[RANG])+SUMPRODUCT(--(F225=ProjectTimelineData[RANG]),--(J225&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11137,7 +11180,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="5:16">
+    <row r="226" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E226" s="4" t="str">
         <f>IFERROR(RANK(F226,ProjectTimelineData[RANG])+SUMPRODUCT(--(F226=ProjectTimelineData[RANG]),--(J226&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11179,7 +11222,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="5:16">
+    <row r="227" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E227" s="4" t="str">
         <f>IFERROR(RANK(F227,ProjectTimelineData[RANG])+SUMPRODUCT(--(F227=ProjectTimelineData[RANG]),--(J227&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11221,7 +11264,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="5:16">
+    <row r="228" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E228" s="4" t="str">
         <f>IFERROR(RANK(F228,ProjectTimelineData[RANG])+SUMPRODUCT(--(F228=ProjectTimelineData[RANG]),--(J228&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11263,7 +11306,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="5:16">
+    <row r="229" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E229" s="4" t="str">
         <f>IFERROR(RANK(F229,ProjectTimelineData[RANG])+SUMPRODUCT(--(F229=ProjectTimelineData[RANG]),--(J229&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11305,7 +11348,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="5:16">
+    <row r="230" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E230" s="4" t="str">
         <f>IFERROR(RANK(F230,ProjectTimelineData[RANG])+SUMPRODUCT(--(F230=ProjectTimelineData[RANG]),--(J230&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11347,7 +11390,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="5:16">
+    <row r="231" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E231" s="4" t="str">
         <f>IFERROR(RANK(F231,ProjectTimelineData[RANG])+SUMPRODUCT(--(F231=ProjectTimelineData[RANG]),--(J231&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11389,7 +11432,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="5:16">
+    <row r="232" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E232" s="4" t="str">
         <f>IFERROR(RANK(F232,ProjectTimelineData[RANG])+SUMPRODUCT(--(F232=ProjectTimelineData[RANG]),--(J232&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11431,7 +11474,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="5:16">
+    <row r="233" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E233" s="4" t="str">
         <f>IFERROR(RANK(F233,ProjectTimelineData[RANG])+SUMPRODUCT(--(F233=ProjectTimelineData[RANG]),--(J233&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11473,7 +11516,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="5:16">
+    <row r="234" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E234" s="4" t="str">
         <f>IFERROR(RANK(F234,ProjectTimelineData[RANG])+SUMPRODUCT(--(F234=ProjectTimelineData[RANG]),--(J234&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11515,7 +11558,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="5:16">
+    <row r="235" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E235" s="4" t="str">
         <f>IFERROR(RANK(F235,ProjectTimelineData[RANG])+SUMPRODUCT(--(F235=ProjectTimelineData[RANG]),--(J235&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11557,7 +11600,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="5:16">
+    <row r="236" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E236" s="4" t="str">
         <f>IFERROR(RANK(F236,ProjectTimelineData[RANG])+SUMPRODUCT(--(F236=ProjectTimelineData[RANG]),--(J236&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11599,7 +11642,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="5:16">
+    <row r="237" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E237" s="4" t="str">
         <f>IFERROR(RANK(F237,ProjectTimelineData[RANG])+SUMPRODUCT(--(F237=ProjectTimelineData[RANG]),--(J237&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11641,7 +11684,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="5:16">
+    <row r="238" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E238" s="4" t="str">
         <f>IFERROR(RANK(F238,ProjectTimelineData[RANG])+SUMPRODUCT(--(F238=ProjectTimelineData[RANG]),--(J238&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11683,7 +11726,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="5:16">
+    <row r="239" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E239" s="4" t="str">
         <f>IFERROR(RANK(F239,ProjectTimelineData[RANG])+SUMPRODUCT(--(F239=ProjectTimelineData[RANG]),--(J239&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11725,7 +11768,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="5:16">
+    <row r="240" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E240" s="4" t="str">
         <f>IFERROR(RANK(F240,ProjectTimelineData[RANG])+SUMPRODUCT(--(F240=ProjectTimelineData[RANG]),--(J240&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11767,7 +11810,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="5:16">
+    <row r="241" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E241" s="4" t="str">
         <f>IFERROR(RANK(F241,ProjectTimelineData[RANG])+SUMPRODUCT(--(F241=ProjectTimelineData[RANG]),--(J241&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11809,7 +11852,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="5:16">
+    <row r="242" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E242" s="4" t="str">
         <f>IFERROR(RANK(F242,ProjectTimelineData[RANG])+SUMPRODUCT(--(F242=ProjectTimelineData[RANG]),--(J242&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11851,7 +11894,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="5:16">
+    <row r="243" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E243" s="4" t="str">
         <f>IFERROR(RANK(F243,ProjectTimelineData[RANG])+SUMPRODUCT(--(F243=ProjectTimelineData[RANG]),--(J243&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11893,7 +11936,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="5:16">
+    <row r="244" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E244" s="4" t="str">
         <f>IFERROR(RANK(F244,ProjectTimelineData[RANG])+SUMPRODUCT(--(F244=ProjectTimelineData[RANG]),--(J244&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11935,7 +11978,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="5:16">
+    <row r="245" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E245" s="4" t="str">
         <f>IFERROR(RANK(F245,ProjectTimelineData[RANG])+SUMPRODUCT(--(F245=ProjectTimelineData[RANG]),--(J245&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -11977,7 +12020,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="5:16">
+    <row r="246" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E246" s="4" t="str">
         <f>IFERROR(RANK(F246,ProjectTimelineData[RANG])+SUMPRODUCT(--(F246=ProjectTimelineData[RANG]),--(J246&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12019,7 +12062,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="5:16">
+    <row r="247" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E247" s="4" t="str">
         <f>IFERROR(RANK(F247,ProjectTimelineData[RANG])+SUMPRODUCT(--(F247=ProjectTimelineData[RANG]),--(J247&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12061,7 +12104,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="5:16">
+    <row r="248" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E248" s="4" t="str">
         <f>IFERROR(RANK(F248,ProjectTimelineData[RANG])+SUMPRODUCT(--(F248=ProjectTimelineData[RANG]),--(J248&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12103,7 +12146,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="5:16">
+    <row r="249" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E249" s="4" t="str">
         <f>IFERROR(RANK(F249,ProjectTimelineData[RANG])+SUMPRODUCT(--(F249=ProjectTimelineData[RANG]),--(J249&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12145,7 +12188,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="5:16">
+    <row r="250" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E250" s="4" t="str">
         <f>IFERROR(RANK(F250,ProjectTimelineData[RANG])+SUMPRODUCT(--(F250=ProjectTimelineData[RANG]),--(J250&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12187,7 +12230,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="5:16">
+    <row r="251" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E251" s="4" t="str">
         <f>IFERROR(RANK(F251,ProjectTimelineData[RANG])+SUMPRODUCT(--(F251=ProjectTimelineData[RANG]),--(J251&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12229,7 +12272,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="5:16">
+    <row r="252" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E252" s="4" t="str">
         <f>IFERROR(RANK(F252,ProjectTimelineData[RANG])+SUMPRODUCT(--(F252=ProjectTimelineData[RANG]),--(J252&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12271,7 +12314,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="5:16">
+    <row r="253" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E253" s="4" t="str">
         <f>IFERROR(RANK(F253,ProjectTimelineData[RANG])+SUMPRODUCT(--(F253=ProjectTimelineData[RANG]),--(J253&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12313,7 +12356,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="5:16">
+    <row r="254" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E254" s="4" t="str">
         <f>IFERROR(RANK(F254,ProjectTimelineData[RANG])+SUMPRODUCT(--(F254=ProjectTimelineData[RANG]),--(J254&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12355,7 +12398,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="5:16">
+    <row r="255" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E255" s="4" t="str">
         <f>IFERROR(RANK(F255,ProjectTimelineData[RANG])+SUMPRODUCT(--(F255=ProjectTimelineData[RANG]),--(J255&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12397,7 +12440,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="5:16">
+    <row r="256" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E256" s="4" t="str">
         <f>IFERROR(RANK(F256,ProjectTimelineData[RANG])+SUMPRODUCT(--(F256=ProjectTimelineData[RANG]),--(J256&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12439,7 +12482,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="5:16">
+    <row r="257" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E257" s="4" t="str">
         <f>IFERROR(RANK(F257,ProjectTimelineData[RANG])+SUMPRODUCT(--(F257=ProjectTimelineData[RANG]),--(J257&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12481,7 +12524,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="5:16">
+    <row r="258" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E258" s="4" t="str">
         <f>IFERROR(RANK(F258,ProjectTimelineData[RANG])+SUMPRODUCT(--(F258=ProjectTimelineData[RANG]),--(J258&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12523,7 +12566,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="5:16">
+    <row r="259" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E259" s="4" t="str">
         <f>IFERROR(RANK(F259,ProjectTimelineData[RANG])+SUMPRODUCT(--(F259=ProjectTimelineData[RANG]),--(J259&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12565,7 +12608,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="5:16">
+    <row r="260" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E260" s="4" t="str">
         <f>IFERROR(RANK(F260,ProjectTimelineData[RANG])+SUMPRODUCT(--(F260=ProjectTimelineData[RANG]),--(J260&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12607,7 +12650,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="5:16">
+    <row r="261" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E261" s="4" t="str">
         <f>IFERROR(RANK(F261,ProjectTimelineData[RANG])+SUMPRODUCT(--(F261=ProjectTimelineData[RANG]),--(J261&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12649,7 +12692,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="5:16">
+    <row r="262" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E262" s="4" t="str">
         <f>IFERROR(RANK(F262,ProjectTimelineData[RANG])+SUMPRODUCT(--(F262=ProjectTimelineData[RANG]),--(J262&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12691,7 +12734,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="5:16">
+    <row r="263" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E263" s="4" t="str">
         <f>IFERROR(RANK(F263,ProjectTimelineData[RANG])+SUMPRODUCT(--(F263=ProjectTimelineData[RANG]),--(J263&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12733,7 +12776,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="5:16">
+    <row r="264" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E264" s="4" t="str">
         <f>IFERROR(RANK(F264,ProjectTimelineData[RANG])+SUMPRODUCT(--(F264=ProjectTimelineData[RANG]),--(J264&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12775,7 +12818,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="5:16">
+    <row r="265" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E265" s="4" t="str">
         <f>IFERROR(RANK(F265,ProjectTimelineData[RANG])+SUMPRODUCT(--(F265=ProjectTimelineData[RANG]),--(J265&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12817,7 +12860,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="5:16">
+    <row r="266" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E266" s="4" t="str">
         <f>IFERROR(RANK(F266,ProjectTimelineData[RANG])+SUMPRODUCT(--(F266=ProjectTimelineData[RANG]),--(J266&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12859,7 +12902,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="5:16">
+    <row r="267" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E267" s="4" t="str">
         <f>IFERROR(RANK(F267,ProjectTimelineData[RANG])+SUMPRODUCT(--(F267=ProjectTimelineData[RANG]),--(J267&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12901,7 +12944,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="5:16">
+    <row r="268" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E268" s="4" t="str">
         <f>IFERROR(RANK(F268,ProjectTimelineData[RANG])+SUMPRODUCT(--(F268=ProjectTimelineData[RANG]),--(J268&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12943,7 +12986,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="5:16">
+    <row r="269" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E269" s="4" t="str">
         <f>IFERROR(RANK(F269,ProjectTimelineData[RANG])+SUMPRODUCT(--(F269=ProjectTimelineData[RANG]),--(J269&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -12985,7 +13028,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="5:16">
+    <row r="270" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E270" s="4" t="str">
         <f>IFERROR(RANK(F270,ProjectTimelineData[RANG])+SUMPRODUCT(--(F270=ProjectTimelineData[RANG]),--(J270&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13027,7 +13070,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="5:16">
+    <row r="271" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E271" s="4" t="str">
         <f>IFERROR(RANK(F271,ProjectTimelineData[RANG])+SUMPRODUCT(--(F271=ProjectTimelineData[RANG]),--(J271&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13069,7 +13112,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="5:16">
+    <row r="272" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E272" s="4" t="str">
         <f>IFERROR(RANK(F272,ProjectTimelineData[RANG])+SUMPRODUCT(--(F272=ProjectTimelineData[RANG]),--(J272&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13111,7 +13154,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="5:16">
+    <row r="273" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E273" s="4" t="str">
         <f>IFERROR(RANK(F273,ProjectTimelineData[RANG])+SUMPRODUCT(--(F273=ProjectTimelineData[RANG]),--(J273&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13153,7 +13196,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="5:16">
+    <row r="274" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E274" s="4" t="str">
         <f>IFERROR(RANK(F274,ProjectTimelineData[RANG])+SUMPRODUCT(--(F274=ProjectTimelineData[RANG]),--(J274&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13195,7 +13238,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="5:16">
+    <row r="275" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E275" s="4" t="str">
         <f>IFERROR(RANK(F275,ProjectTimelineData[RANG])+SUMPRODUCT(--(F275=ProjectTimelineData[RANG]),--(J275&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13237,7 +13280,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="5:16">
+    <row r="276" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E276" s="4" t="str">
         <f>IFERROR(RANK(F276,ProjectTimelineData[RANG])+SUMPRODUCT(--(F276=ProjectTimelineData[RANG]),--(J276&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13279,7 +13322,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="5:16">
+    <row r="277" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E277" s="4" t="str">
         <f>IFERROR(RANK(F277,ProjectTimelineData[RANG])+SUMPRODUCT(--(F277=ProjectTimelineData[RANG]),--(J277&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13321,7 +13364,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="5:16">
+    <row r="278" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E278" s="4" t="str">
         <f>IFERROR(RANK(F278,ProjectTimelineData[RANG])+SUMPRODUCT(--(F278=ProjectTimelineData[RANG]),--(J278&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13363,7 +13406,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="5:16">
+    <row r="279" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E279" s="4" t="str">
         <f>IFERROR(RANK(F279,ProjectTimelineData[RANG])+SUMPRODUCT(--(F279=ProjectTimelineData[RANG]),--(J279&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13405,7 +13448,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="5:16">
+    <row r="280" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E280" s="4" t="str">
         <f>IFERROR(RANK(F280,ProjectTimelineData[RANG])+SUMPRODUCT(--(F280=ProjectTimelineData[RANG]),--(J280&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13447,7 +13490,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="5:16">
+    <row r="281" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E281" s="4" t="str">
         <f>IFERROR(RANK(F281,ProjectTimelineData[RANG])+SUMPRODUCT(--(F281=ProjectTimelineData[RANG]),--(J281&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13489,7 +13532,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="5:16">
+    <row r="282" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E282" s="4" t="str">
         <f>IFERROR(RANK(F282,ProjectTimelineData[RANG])+SUMPRODUCT(--(F282=ProjectTimelineData[RANG]),--(J282&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13531,7 +13574,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="5:16">
+    <row r="283" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E283" s="4" t="str">
         <f>IFERROR(RANK(F283,ProjectTimelineData[RANG])+SUMPRODUCT(--(F283=ProjectTimelineData[RANG]),--(J283&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13573,7 +13616,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="5:16">
+    <row r="284" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E284" s="4" t="str">
         <f>IFERROR(RANK(F284,ProjectTimelineData[RANG])+SUMPRODUCT(--(F284=ProjectTimelineData[RANG]),--(J284&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13615,7 +13658,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="5:16">
+    <row r="285" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E285" s="4" t="str">
         <f>IFERROR(RANK(F285,ProjectTimelineData[RANG])+SUMPRODUCT(--(F285=ProjectTimelineData[RANG]),--(J285&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13657,7 +13700,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="5:16">
+    <row r="286" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E286" s="4" t="str">
         <f>IFERROR(RANK(F286,ProjectTimelineData[RANG])+SUMPRODUCT(--(F286=ProjectTimelineData[RANG]),--(J286&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13699,7 +13742,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="5:16">
+    <row r="287" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E287" s="4" t="str">
         <f>IFERROR(RANK(F287,ProjectTimelineData[RANG])+SUMPRODUCT(--(F287=ProjectTimelineData[RANG]),--(J287&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13741,7 +13784,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="5:16">
+    <row r="288" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E288" s="4" t="str">
         <f>IFERROR(RANK(F288,ProjectTimelineData[RANG])+SUMPRODUCT(--(F288=ProjectTimelineData[RANG]),--(J288&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13783,7 +13826,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="5:16">
+    <row r="289" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E289" s="4" t="str">
         <f>IFERROR(RANK(F289,ProjectTimelineData[RANG])+SUMPRODUCT(--(F289=ProjectTimelineData[RANG]),--(J289&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13825,7 +13868,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="5:16">
+    <row r="290" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E290" s="4" t="str">
         <f>IFERROR(RANK(F290,ProjectTimelineData[RANG])+SUMPRODUCT(--(F290=ProjectTimelineData[RANG]),--(J290&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13867,7 +13910,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="5:16">
+    <row r="291" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E291" s="4" t="str">
         <f>IFERROR(RANK(F291,ProjectTimelineData[RANG])+SUMPRODUCT(--(F291=ProjectTimelineData[RANG]),--(J291&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13909,7 +13952,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="5:16">
+    <row r="292" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E292" s="4" t="str">
         <f>IFERROR(RANK(F292,ProjectTimelineData[RANG])+SUMPRODUCT(--(F292=ProjectTimelineData[RANG]),--(J292&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13951,7 +13994,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="5:16">
+    <row r="293" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E293" s="4" t="str">
         <f>IFERROR(RANK(F293,ProjectTimelineData[RANG])+SUMPRODUCT(--(F293=ProjectTimelineData[RANG]),--(J293&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -13993,7 +14036,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="5:16">
+    <row r="294" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E294" s="4" t="str">
         <f>IFERROR(RANK(F294,ProjectTimelineData[RANG])+SUMPRODUCT(--(F294=ProjectTimelineData[RANG]),--(J294&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14035,7 +14078,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="5:16">
+    <row r="295" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E295" s="4" t="str">
         <f>IFERROR(RANK(F295,ProjectTimelineData[RANG])+SUMPRODUCT(--(F295=ProjectTimelineData[RANG]),--(J295&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14077,7 +14120,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="5:16">
+    <row r="296" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E296" s="4" t="str">
         <f>IFERROR(RANK(F296,ProjectTimelineData[RANG])+SUMPRODUCT(--(F296=ProjectTimelineData[RANG]),--(J296&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14119,7 +14162,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="5:16">
+    <row r="297" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E297" s="4" t="str">
         <f>IFERROR(RANK(F297,ProjectTimelineData[RANG])+SUMPRODUCT(--(F297=ProjectTimelineData[RANG]),--(J297&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14161,7 +14204,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="5:16">
+    <row r="298" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E298" s="4" t="str">
         <f>IFERROR(RANK(F298,ProjectTimelineData[RANG])+SUMPRODUCT(--(F298=ProjectTimelineData[RANG]),--(J298&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14203,7 +14246,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="5:16">
+    <row r="299" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E299" s="4" t="str">
         <f>IFERROR(RANK(F299,ProjectTimelineData[RANG])+SUMPRODUCT(--(F299=ProjectTimelineData[RANG]),--(J299&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14245,7 +14288,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="5:16">
+    <row r="300" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E300" s="4" t="str">
         <f>IFERROR(RANK(F300,ProjectTimelineData[RANG])+SUMPRODUCT(--(F300=ProjectTimelineData[RANG]),--(J300&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14287,7 +14330,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="5:16">
+    <row r="301" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E301" s="4" t="str">
         <f>IFERROR(RANK(F301,ProjectTimelineData[RANG])+SUMPRODUCT(--(F301=ProjectTimelineData[RANG]),--(J301&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14329,7 +14372,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="5:16">
+    <row r="302" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E302" s="4" t="str">
         <f>IFERROR(RANK(F302,ProjectTimelineData[RANG])+SUMPRODUCT(--(F302=ProjectTimelineData[RANG]),--(J302&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14371,7 +14414,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="5:16">
+    <row r="303" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E303" s="4" t="str">
         <f>IFERROR(RANK(F303,ProjectTimelineData[RANG])+SUMPRODUCT(--(F303=ProjectTimelineData[RANG]),--(J303&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14413,7 +14456,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="5:16">
+    <row r="304" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E304" s="4" t="str">
         <f>IFERROR(RANK(F304,ProjectTimelineData[RANG])+SUMPRODUCT(--(F304=ProjectTimelineData[RANG]),--(J304&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14455,7 +14498,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:16">
+    <row r="305" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E305" s="4" t="str">
         <f>IFERROR(RANK(F305,ProjectTimelineData[RANG])+SUMPRODUCT(--(F305=ProjectTimelineData[RANG]),--(J305&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14497,7 +14540,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:16">
+    <row r="306" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E306" s="4" t="str">
         <f>IFERROR(RANK(F306,ProjectTimelineData[RANG])+SUMPRODUCT(--(F306=ProjectTimelineData[RANG]),--(J306&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14539,7 +14582,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:16">
+    <row r="307" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E307" s="4" t="str">
         <f>IFERROR(RANK(F307,ProjectTimelineData[RANG])+SUMPRODUCT(--(F307=ProjectTimelineData[RANG]),--(J307&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14581,7 +14624,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="5:16">
+    <row r="308" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E308" s="4" t="str">
         <f>IFERROR(RANK(F308,ProjectTimelineData[RANG])+SUMPRODUCT(--(F308=ProjectTimelineData[RANG]),--(J308&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14623,7 +14666,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="5:16">
+    <row r="309" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E309" s="4" t="str">
         <f>IFERROR(RANK(F309,ProjectTimelineData[RANG])+SUMPRODUCT(--(F309=ProjectTimelineData[RANG]),--(J309&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14665,7 +14708,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="5:16">
+    <row r="310" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E310" s="4" t="str">
         <f>IFERROR(RANK(F310,ProjectTimelineData[RANG])+SUMPRODUCT(--(F310=ProjectTimelineData[RANG]),--(J310&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14707,7 +14750,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="5:16">
+    <row r="311" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E311" s="4" t="str">
         <f>IFERROR(RANK(F311,ProjectTimelineData[RANG])+SUMPRODUCT(--(F311=ProjectTimelineData[RANG]),--(J311&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14749,7 +14792,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="5:16">
+    <row r="312" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E312" s="4" t="str">
         <f>IFERROR(RANK(F312,ProjectTimelineData[RANG])+SUMPRODUCT(--(F312=ProjectTimelineData[RANG]),--(J312&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14791,7 +14834,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="5:16">
+    <row r="313" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E313" s="4" t="str">
         <f>IFERROR(RANK(F313,ProjectTimelineData[RANG])+SUMPRODUCT(--(F313=ProjectTimelineData[RANG]),--(J313&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14833,7 +14876,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="5:16">
+    <row r="314" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E314" s="4" t="str">
         <f>IFERROR(RANK(F314,ProjectTimelineData[RANG])+SUMPRODUCT(--(F314=ProjectTimelineData[RANG]),--(J314&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14875,7 +14918,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="5:16">
+    <row r="315" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E315" s="4" t="str">
         <f>IFERROR(RANK(F315,ProjectTimelineData[RANG])+SUMPRODUCT(--(F315=ProjectTimelineData[RANG]),--(J315&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14917,7 +14960,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="5:16">
+    <row r="316" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E316" s="4" t="str">
         <f>IFERROR(RANK(F316,ProjectTimelineData[RANG])+SUMPRODUCT(--(F316=ProjectTimelineData[RANG]),--(J316&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -14959,7 +15002,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="5:16">
+    <row r="317" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E317" s="4" t="str">
         <f>IFERROR(RANK(F317,ProjectTimelineData[RANG])+SUMPRODUCT(--(F317=ProjectTimelineData[RANG]),--(J317&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15001,7 +15044,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="5:16">
+    <row r="318" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E318" s="4" t="str">
         <f>IFERROR(RANK(F318,ProjectTimelineData[RANG])+SUMPRODUCT(--(F318=ProjectTimelineData[RANG]),--(J318&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15043,7 +15086,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="5:16">
+    <row r="319" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E319" s="4" t="str">
         <f>IFERROR(RANK(F319,ProjectTimelineData[RANG])+SUMPRODUCT(--(F319=ProjectTimelineData[RANG]),--(J319&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15085,7 +15128,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="5:16">
+    <row r="320" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E320" s="4" t="str">
         <f>IFERROR(RANK(F320,ProjectTimelineData[RANG])+SUMPRODUCT(--(F320=ProjectTimelineData[RANG]),--(J320&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15127,7 +15170,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="5:16">
+    <row r="321" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E321" s="4" t="str">
         <f>IFERROR(RANK(F321,ProjectTimelineData[RANG])+SUMPRODUCT(--(F321=ProjectTimelineData[RANG]),--(J321&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15169,7 +15212,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="5:16">
+    <row r="322" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E322" s="4" t="str">
         <f>IFERROR(RANK(F322,ProjectTimelineData[RANG])+SUMPRODUCT(--(F322=ProjectTimelineData[RANG]),--(J322&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15211,7 +15254,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="5:16">
+    <row r="323" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E323" s="4" t="str">
         <f>IFERROR(RANK(F323,ProjectTimelineData[RANG])+SUMPRODUCT(--(F323=ProjectTimelineData[RANG]),--(J323&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15253,7 +15296,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="5:16">
+    <row r="324" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E324" s="4" t="str">
         <f>IFERROR(RANK(F324,ProjectTimelineData[RANG])+SUMPRODUCT(--(F324=ProjectTimelineData[RANG]),--(J324&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15295,7 +15338,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="5:16">
+    <row r="325" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E325" s="4" t="str">
         <f>IFERROR(RANK(F325,ProjectTimelineData[RANG])+SUMPRODUCT(--(F325=ProjectTimelineData[RANG]),--(J325&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15337,7 +15380,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="5:16">
+    <row r="326" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E326" s="4" t="str">
         <f>IFERROR(RANK(F326,ProjectTimelineData[RANG])+SUMPRODUCT(--(F326=ProjectTimelineData[RANG]),--(J326&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15379,7 +15422,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="5:16">
+    <row r="327" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E327" s="4" t="str">
         <f>IFERROR(RANK(F327,ProjectTimelineData[RANG])+SUMPRODUCT(--(F327=ProjectTimelineData[RANG]),--(J327&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15421,7 +15464,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="5:16">
+    <row r="328" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E328" s="4" t="str">
         <f>IFERROR(RANK(F328,ProjectTimelineData[RANG])+SUMPRODUCT(--(F328=ProjectTimelineData[RANG]),--(J328&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15463,7 +15506,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="5:16">
+    <row r="329" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E329" s="4" t="str">
         <f>IFERROR(RANK(F329,ProjectTimelineData[RANG])+SUMPRODUCT(--(F329=ProjectTimelineData[RANG]),--(J329&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15505,7 +15548,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="5:16">
+    <row r="330" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E330" s="4" t="str">
         <f>IFERROR(RANK(F330,ProjectTimelineData[RANG])+SUMPRODUCT(--(F330=ProjectTimelineData[RANG]),--(J330&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15547,7 +15590,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="5:16">
+    <row r="331" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E331" s="4" t="str">
         <f>IFERROR(RANK(F331,ProjectTimelineData[RANG])+SUMPRODUCT(--(F331=ProjectTimelineData[RANG]),--(J331&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15589,7 +15632,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="5:16">
+    <row r="332" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E332" s="4" t="str">
         <f>IFERROR(RANK(F332,ProjectTimelineData[RANG])+SUMPRODUCT(--(F332=ProjectTimelineData[RANG]),--(J332&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15631,7 +15674,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="5:16">
+    <row r="333" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E333" s="4" t="str">
         <f>IFERROR(RANK(F333,ProjectTimelineData[RANG])+SUMPRODUCT(--(F333=ProjectTimelineData[RANG]),--(J333&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15673,7 +15716,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="5:16">
+    <row r="334" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E334" s="4" t="str">
         <f>IFERROR(RANK(F334,ProjectTimelineData[RANG])+SUMPRODUCT(--(F334=ProjectTimelineData[RANG]),--(J334&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15715,7 +15758,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="5:16">
+    <row r="335" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E335" s="4" t="str">
         <f>IFERROR(RANK(F335,ProjectTimelineData[RANG])+SUMPRODUCT(--(F335=ProjectTimelineData[RANG]),--(J335&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15757,7 +15800,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="5:16">
+    <row r="336" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E336" s="4" t="str">
         <f>IFERROR(RANK(F336,ProjectTimelineData[RANG])+SUMPRODUCT(--(F336=ProjectTimelineData[RANG]),--(J336&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15799,7 +15842,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="5:16">
+    <row r="337" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E337" s="4" t="str">
         <f>IFERROR(RANK(F337,ProjectTimelineData[RANG])+SUMPRODUCT(--(F337=ProjectTimelineData[RANG]),--(J337&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15841,7 +15884,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="5:16">
+    <row r="338" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E338" s="4" t="str">
         <f>IFERROR(RANK(F338,ProjectTimelineData[RANG])+SUMPRODUCT(--(F338=ProjectTimelineData[RANG]),--(J338&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15883,7 +15926,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="5:16">
+    <row r="339" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E339" s="4" t="str">
         <f>IFERROR(RANK(F339,ProjectTimelineData[RANG])+SUMPRODUCT(--(F339=ProjectTimelineData[RANG]),--(J339&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15925,7 +15968,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="5:16">
+    <row r="340" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E340" s="4" t="str">
         <f>IFERROR(RANK(F340,ProjectTimelineData[RANG])+SUMPRODUCT(--(F340=ProjectTimelineData[RANG]),--(J340&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -15967,7 +16010,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="5:16">
+    <row r="341" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E341" s="4" t="str">
         <f>IFERROR(RANK(F341,ProjectTimelineData[RANG])+SUMPRODUCT(--(F341=ProjectTimelineData[RANG]),--(J341&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16009,7 +16052,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="5:16">
+    <row r="342" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E342" s="4" t="str">
         <f>IFERROR(RANK(F342,ProjectTimelineData[RANG])+SUMPRODUCT(--(F342=ProjectTimelineData[RANG]),--(J342&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16051,7 +16094,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="5:16">
+    <row r="343" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E343" s="4" t="str">
         <f>IFERROR(RANK(F343,ProjectTimelineData[RANG])+SUMPRODUCT(--(F343=ProjectTimelineData[RANG]),--(J343&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16093,7 +16136,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="5:16">
+    <row r="344" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E344" s="4" t="str">
         <f>IFERROR(RANK(F344,ProjectTimelineData[RANG])+SUMPRODUCT(--(F344=ProjectTimelineData[RANG]),--(J344&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16135,7 +16178,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="5:16">
+    <row r="345" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E345" s="4" t="str">
         <f>IFERROR(RANK(F345,ProjectTimelineData[RANG])+SUMPRODUCT(--(F345=ProjectTimelineData[RANG]),--(J345&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16177,7 +16220,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="5:16">
+    <row r="346" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E346" s="4" t="str">
         <f>IFERROR(RANK(F346,ProjectTimelineData[RANG])+SUMPRODUCT(--(F346=ProjectTimelineData[RANG]),--(J346&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16219,7 +16262,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="5:16">
+    <row r="347" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E347" s="4" t="str">
         <f>IFERROR(RANK(F347,ProjectTimelineData[RANG])+SUMPRODUCT(--(F347=ProjectTimelineData[RANG]),--(J347&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16261,7 +16304,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="5:16">
+    <row r="348" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E348" s="4" t="str">
         <f>IFERROR(RANK(F348,ProjectTimelineData[RANG])+SUMPRODUCT(--(F348=ProjectTimelineData[RANG]),--(J348&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
@@ -16303,7 +16346,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="5:16">
+    <row r="349" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E349" s="4" t="str">
         <f>IFERROR(RANK(F349,ProjectTimelineData[RANG])+SUMPRODUCT(--(F349=ProjectTimelineData[RANG]),--(J349&lt;ProjectTimelineData[NUM])),"")</f>
         <v/>
